--- a/BackTest/2019-10-16 BackTest GXC.xlsx
+++ b/BackTest/2019-10-16 BackTest GXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>32</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>3.225806451612903</v>
+      </c>
       <c r="L12" t="n">
         <v>673.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>33</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>25.92592592592592</v>
+      </c>
       <c r="L13" t="n">
         <v>674</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>33</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L14" t="n">
         <v>674.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>33</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L15" t="n">
         <v>675.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>40</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L16" t="n">
         <v>674.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>46</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-39.1304347826087</v>
+      </c>
       <c r="L17" t="n">
         <v>673.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>47</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-39.1304347826087</v>
+      </c>
       <c r="L18" t="n">
         <v>672.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>47</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-39.1304347826087</v>
+      </c>
       <c r="L19" t="n">
         <v>671.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>52</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-4</v>
+      </c>
       <c r="L20" t="n">
         <v>671.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>55</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-39.1304347826087</v>
+      </c>
       <c r="L21" t="n">
         <v>670.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>62</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-58.62068965517241</v>
+      </c>
       <c r="L22" t="n">
         <v>669.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>73</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.555555555555555</v>
+        <v>-15</v>
       </c>
       <c r="L23" t="n">
         <v>668.6</v>
@@ -1466,7 +1488,7 @@
         <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>666.9</v>
@@ -1515,7 +1537,7 @@
         <v>85</v>
       </c>
       <c r="K25" t="n">
-        <v>-15.38461538461539</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L25" t="n">
         <v>665.1</v>
@@ -1564,7 +1586,7 @@
         <v>86</v>
       </c>
       <c r="K26" t="n">
-        <v>-28.57142857142857</v>
+        <v>-10</v>
       </c>
       <c r="L26" t="n">
         <v>664.1</v>
@@ -1613,7 +1635,7 @@
         <v>92</v>
       </c>
       <c r="K27" t="n">
-        <v>-28.57142857142857</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L27" t="n">
         <v>663.1</v>
@@ -1662,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="K28" t="n">
-        <v>-17.33333333333334</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L28" t="n">
         <v>662.6</v>
@@ -1711,7 +1733,7 @@
         <v>104</v>
       </c>
       <c r="K29" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L29" t="n">
         <v>662.7</v>
@@ -1760,7 +1782,7 @@
         <v>105</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.641975308641975</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>662.4</v>
@@ -1809,7 +1831,7 @@
         <v>108</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.641975308641975</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L31" t="n">
         <v>662.1</v>
@@ -1860,7 +1882,7 @@
         <v>115</v>
       </c>
       <c r="K32" t="n">
-        <v>-22.89156626506024</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>661.8</v>
@@ -1911,7 +1933,7 @@
         <v>119</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.6046511627907</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>660.8</v>
@@ -1962,7 +1984,7 @@
         <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>-17.24137931034483</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L34" t="n">
         <v>661</v>
@@ -2013,7 +2035,7 @@
         <v>122</v>
       </c>
       <c r="K35" t="n">
-        <v>-19.10112359550562</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>661.1</v>
@@ -2064,7 +2086,7 @@
         <v>122</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.19512195121951</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>661.1</v>
@@ -2115,7 +2137,7 @@
         <v>125</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.265822784810127</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L37" t="n">
         <v>662</v>
@@ -2166,7 +2188,7 @@
         <v>128</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.172839506172839</v>
+        <v>-25</v>
       </c>
       <c r="L38" t="n">
         <v>662</v>
@@ -2217,7 +2239,7 @@
         <v>128</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.172839506172839</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L39" t="n">
         <v>661.4</v>
@@ -2268,7 +2290,7 @@
         <v>128</v>
       </c>
       <c r="K40" t="n">
-        <v>-13.1578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L40" t="n">
         <v>660.7</v>
@@ -2319,7 +2341,7 @@
         <v>129</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.108108108108109</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L41" t="n">
         <v>660.4</v>
@@ -2370,7 +2392,7 @@
         <v>131</v>
       </c>
       <c r="K42" t="n">
-        <v>4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>661</v>
@@ -2421,7 +2443,7 @@
         <v>138</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.538461538461539</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L43" t="n">
         <v>661.9</v>
@@ -2472,7 +2494,7 @@
         <v>143</v>
       </c>
       <c r="K44" t="n">
-        <v>25.42372881355932</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>663.2</v>
@@ -2523,7 +2545,7 @@
         <v>147</v>
       </c>
       <c r="K45" t="n">
-        <v>19.35483870967742</v>
+        <v>44</v>
       </c>
       <c r="L45" t="n">
         <v>664.3</v>
@@ -2574,7 +2596,7 @@
         <v>147</v>
       </c>
       <c r="K46" t="n">
-        <v>18.0327868852459</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L46" t="n">
         <v>665.4</v>
@@ -2625,7 +2647,7 @@
         <v>148</v>
       </c>
       <c r="K47" t="n">
-        <v>32.14285714285715</v>
+        <v>60</v>
       </c>
       <c r="L47" t="n">
         <v>666.3</v>
@@ -2676,7 +2698,7 @@
         <v>150</v>
       </c>
       <c r="K48" t="n">
-        <v>19.23076923076923</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L48" t="n">
         <v>667.3</v>
@@ -2727,7 +2749,7 @@
         <v>153</v>
       </c>
       <c r="K49" t="n">
-        <v>2.040816326530612</v>
+        <v>28</v>
       </c>
       <c r="L49" t="n">
         <v>668</v>
@@ -2778,7 +2800,7 @@
         <v>154</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.040816326530612</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>668.6</v>
@@ -2829,7 +2851,7 @@
         <v>155</v>
       </c>
       <c r="K51" t="n">
-        <v>6.382978723404255</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L51" t="n">
         <v>669.2</v>
@@ -2880,7 +2902,7 @@
         <v>156</v>
       </c>
       <c r="K52" t="n">
-        <v>21.95121951219512</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L52" t="n">
         <v>669.5</v>
@@ -2931,7 +2953,7 @@
         <v>161</v>
       </c>
       <c r="K53" t="n">
-        <v>23.80952380952381</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L53" t="n">
         <v>669.6</v>
@@ -2982,7 +3004,7 @@
         <v>163</v>
       </c>
       <c r="K54" t="n">
-        <v>16.27906976744186</v>
+        <v>-12.5</v>
       </c>
       <c r="L54" t="n">
         <v>669</v>
@@ -3033,7 +3055,7 @@
         <v>172</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="L55" t="n">
         <v>667.9</v>
@@ -3084,7 +3106,7 @@
         <v>177</v>
       </c>
       <c r="K56" t="n">
-        <v>9.090909090909092</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L56" t="n">
         <v>667.3</v>
@@ -3135,7 +3157,7 @@
         <v>182</v>
       </c>
       <c r="K57" t="n">
-        <v>-5.263157894736842</v>
+        <v>-31.25</v>
       </c>
       <c r="L57" t="n">
         <v>666.1</v>
@@ -3186,7 +3208,7 @@
         <v>183</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.818181818181818</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L58" t="n">
         <v>665</v>
@@ -3237,7 +3259,7 @@
         <v>183</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.818181818181818</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L59" t="n">
         <v>664.2</v>
@@ -3288,7 +3310,7 @@
         <v>189</v>
       </c>
       <c r="K60" t="n">
-        <v>8.196721311475409</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L60" t="n">
         <v>664.1</v>
@@ -3339,7 +3361,7 @@
         <v>191</v>
       </c>
       <c r="K61" t="n">
-        <v>3.225806451612903</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L61" t="n">
         <v>663.7</v>
@@ -3390,7 +3412,7 @@
         <v>195</v>
       </c>
       <c r="K62" t="n">
-        <v>-6.25</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L62" t="n">
         <v>663</v>
@@ -3441,7 +3463,7 @@
         <v>206</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L63" t="n">
         <v>662.9</v>
@@ -3492,7 +3514,7 @@
         <v>209</v>
       </c>
       <c r="K64" t="n">
-        <v>-12.12121212121212</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L64" t="n">
         <v>662.7</v>
@@ -3543,7 +3565,7 @@
         <v>211</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.375</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>663.2</v>
@@ -3594,7 +3616,7 @@
         <v>215</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.70588235294118</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L66" t="n">
         <v>662.8</v>
@@ -3645,7 +3667,7 @@
         <v>215</v>
       </c>
       <c r="K67" t="n">
-        <v>-16.41791044776119</v>
+        <v>6.25</v>
       </c>
       <c r="L67" t="n">
         <v>662.9</v>
@@ -3696,7 +3718,7 @@
         <v>216</v>
       </c>
       <c r="K68" t="n">
-        <v>-15.15151515151515</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L68" t="n">
         <v>663</v>
@@ -3747,7 +3769,7 @@
         <v>218</v>
       </c>
       <c r="K69" t="n">
-        <v>-13.84615384615385</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L69" t="n">
         <v>662.9</v>
@@ -3798,7 +3820,7 @@
         <v>218</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.5</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L70" t="n">
         <v>662.2</v>
@@ -3849,7 +3871,7 @@
         <v>218</v>
       </c>
       <c r="K71" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L71" t="n">
         <v>661.7</v>
@@ -3900,7 +3922,7 @@
         <v>218</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.90322580645161</v>
+        <v>-100</v>
       </c>
       <c r="L72" t="n">
         <v>661.6</v>
@@ -3951,7 +3973,7 @@
         <v>221</v>
       </c>
       <c r="K73" t="n">
-        <v>-26.66666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L73" t="n">
         <v>660.1</v>
@@ -4002,7 +4024,7 @@
         <v>222</v>
       </c>
       <c r="K74" t="n">
-        <v>-25.42372881355932</v>
+        <v>-100</v>
       </c>
       <c r="L74" t="n">
         <v>658.8</v>
@@ -4053,7 +4075,7 @@
         <v>224</v>
       </c>
       <c r="K75" t="n">
-        <v>-15.38461538461539</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>657.5</v>
@@ -4104,7 +4126,7 @@
         <v>229</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L76" t="n">
         <v>657.1</v>
@@ -4155,7 +4177,7 @@
         <v>229</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.382978723404255</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L77" t="n">
         <v>656.7</v>
@@ -4206,7 +4228,7 @@
         <v>235</v>
       </c>
       <c r="K78" t="n">
-        <v>-15.38461538461539</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L78" t="n">
         <v>655.8</v>
@@ -4257,7 +4279,7 @@
         <v>238</v>
       </c>
       <c r="K79" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L79" t="n">
         <v>654.8</v>
@@ -4308,7 +4330,7 @@
         <v>238</v>
       </c>
       <c r="K80" t="n">
-        <v>-34.69387755102041</v>
+        <v>-50</v>
       </c>
       <c r="L80" t="n">
         <v>653.8</v>
@@ -4359,7 +4381,7 @@
         <v>242</v>
       </c>
       <c r="K81" t="n">
-        <v>-37.25490196078432</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L81" t="n">
         <v>652.4</v>
@@ -4410,7 +4432,7 @@
         <v>243</v>
       </c>
       <c r="K82" t="n">
-        <v>-29.16666666666667</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L82" t="n">
         <v>651.1</v>
@@ -4461,7 +4483,7 @@
         <v>252</v>
       </c>
       <c r="K83" t="n">
-        <v>-73.91304347826086</v>
+        <v>-60</v>
       </c>
       <c r="L83" t="n">
         <v>649.2</v>
@@ -4512,7 +4534,7 @@
         <v>257</v>
       </c>
       <c r="K84" t="n">
-        <v>-54.16666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>647.9</v>
@@ -4563,7 +4585,7 @@
         <v>260</v>
       </c>
       <c r="K85" t="n">
-        <v>-42.85714285714285</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L85" t="n">
         <v>647.1</v>
@@ -4614,7 +4636,7 @@
         <v>268</v>
       </c>
       <c r="K86" t="n">
-        <v>-47.16981132075472</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L86" t="n">
         <v>645</v>
@@ -4665,7 +4687,7 @@
         <v>275</v>
       </c>
       <c r="K87" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>643.6</v>
@@ -4716,7 +4738,7 @@
         <v>287</v>
       </c>
       <c r="K88" t="n">
-        <v>-7.042253521126761</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>644</v>
@@ -4767,7 +4789,7 @@
         <v>291</v>
       </c>
       <c r="K89" t="n">
-        <v>-9.58904109589041</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L89" t="n">
         <v>644.3</v>
@@ -4818,7 +4840,7 @@
         <v>292</v>
       </c>
       <c r="K90" t="n">
-        <v>-10.81081081081081</v>
+        <v>12</v>
       </c>
       <c r="L90" t="n">
         <v>644.5</v>
@@ -4869,7 +4891,7 @@
         <v>293</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.333333333333334</v>
+        <v>12</v>
       </c>
       <c r="L91" t="n">
         <v>645.2</v>
@@ -4920,7 +4942,7 @@
         <v>295</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.493506493506493</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L92" t="n">
         <v>646</v>
@@ -4971,7 +4993,7 @@
         <v>299</v>
       </c>
       <c r="K93" t="n">
-        <v>2.564102564102564</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L93" t="n">
         <v>648.1</v>
@@ -5022,7 +5044,7 @@
         <v>300</v>
       </c>
       <c r="K94" t="n">
-        <v>5.128205128205128</v>
+        <v>35</v>
       </c>
       <c r="L94" t="n">
         <v>649.8</v>
@@ -5073,7 +5095,7 @@
         <v>309</v>
       </c>
       <c r="K95" t="n">
-        <v>-3.529411764705882</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L95" t="n">
         <v>650.3</v>
@@ -5124,7 +5146,7 @@
         <v>320</v>
       </c>
       <c r="K96" t="n">
-        <v>-20.87912087912088</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L96" t="n">
         <v>650.5</v>
@@ -5175,7 +5197,7 @@
         <v>334</v>
       </c>
       <c r="K97" t="n">
-        <v>-4.761904761904762</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L97" t="n">
         <v>651.4</v>
@@ -5226,7 +5248,7 @@
         <v>345</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L98" t="n">
         <v>650</v>
@@ -5277,7 +5299,7 @@
         <v>350</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.785714285714286</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L99" t="n">
         <v>649.5</v>
@@ -5328,7 +5350,7 @@
         <v>359</v>
       </c>
       <c r="K100" t="n">
-        <v>-9.090909090909092</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L100" t="n">
         <v>648.2</v>
@@ -5379,7 +5401,7 @@
         <v>364</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.639344262295082</v>
+        <v>-15.94202898550724</v>
       </c>
       <c r="L101" t="n">
         <v>647.3</v>
@@ -5430,7 +5452,7 @@
         <v>365</v>
       </c>
       <c r="K102" t="n">
-        <v>-1.639344262295082</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L102" t="n">
         <v>646.3</v>
@@ -5481,7 +5503,7 @@
         <v>370</v>
       </c>
       <c r="K103" t="n">
-        <v>10.16949152542373</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L103" t="n">
         <v>645.4</v>
@@ -5532,7 +5554,7 @@
         <v>383</v>
       </c>
       <c r="K104" t="n">
-        <v>-4.761904761904762</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L104" t="n">
         <v>643.1</v>
@@ -5583,7 +5605,7 @@
         <v>388</v>
       </c>
       <c r="K105" t="n">
-        <v>-10.9375</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L105" t="n">
         <v>641.2</v>
@@ -5634,7 +5656,7 @@
         <v>396</v>
       </c>
       <c r="K106" t="n">
-        <v>1.5625</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L106" t="n">
         <v>641.2</v>
@@ -5685,7 +5707,7 @@
         <v>398</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.691056910569105</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L107" t="n">
         <v>639.6</v>
@@ -5736,7 +5758,7 @@
         <v>402</v>
       </c>
       <c r="K108" t="n">
-        <v>-13.04347826086956</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L108" t="n">
         <v>639.5</v>
@@ -5787,7 +5809,7 @@
         <v>407</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.172413793103448</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L109" t="n">
         <v>639.4</v>
@@ -5838,7 +5860,7 @@
         <v>412</v>
       </c>
       <c r="K110" t="n">
-        <v>-8.333333333333332</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L110" t="n">
         <v>639.7</v>
@@ -5889,7 +5911,7 @@
         <v>419</v>
       </c>
       <c r="K111" t="n">
-        <v>-3.174603174603174</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L111" t="n">
         <v>640.2</v>
@@ -5940,7 +5962,7 @@
         <v>427</v>
       </c>
       <c r="K112" t="n">
-        <v>-10.60606060606061</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L112" t="n">
         <v>639.8</v>
@@ -5991,7 +6013,7 @@
         <v>428</v>
       </c>
       <c r="K113" t="n">
-        <v>-14.72868217054264</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L113" t="n">
         <v>638.8</v>
@@ -6042,7 +6064,7 @@
         <v>433</v>
       </c>
       <c r="K114" t="n">
-        <v>-18.79699248120301</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L114" t="n">
         <v>638.6</v>
@@ -6093,7 +6115,7 @@
         <v>435</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L115" t="n">
         <v>639.1</v>
@@ -6144,7 +6166,7 @@
         <v>440</v>
       </c>
       <c r="K116" t="n">
-        <v>1.666666666666667</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L116" t="n">
         <v>639.3</v>
@@ -6195,7 +6217,7 @@
         <v>442</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.25925925925926</v>
+        <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>639.9</v>
@@ -6246,7 +6268,7 @@
         <v>445</v>
       </c>
       <c r="K118" t="n">
-        <v>-2</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L118" t="n">
         <v>639.8</v>
@@ -6297,7 +6319,7 @@
         <v>452</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L119" t="n">
         <v>639.9</v>
@@ -6348,7 +6370,7 @@
         <v>453</v>
       </c>
       <c r="K120" t="n">
-        <v>10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>640.6</v>
@@ -6399,7 +6421,7 @@
         <v>454</v>
       </c>
       <c r="K121" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>640.7</v>
@@ -6450,7 +6472,7 @@
         <v>457</v>
       </c>
       <c r="K122" t="n">
-        <v>8.695652173913043</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L122" t="n">
         <v>641.9</v>
@@ -6501,7 +6523,7 @@
         <v>457</v>
       </c>
       <c r="K123" t="n">
-        <v>3.448275862068965</v>
+        <v>75</v>
       </c>
       <c r="L123" t="n">
         <v>643.2</v>
@@ -6552,7 +6574,7 @@
         <v>465</v>
       </c>
       <c r="K124" t="n">
-        <v>9.75609756097561</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L124" t="n">
         <v>644.2</v>
@@ -6603,7 +6625,7 @@
         <v>475</v>
       </c>
       <c r="K125" t="n">
-        <v>26.4367816091954</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L125" t="n">
         <v>646</v>
@@ -6654,7 +6676,7 @@
         <v>481</v>
       </c>
       <c r="K126" t="n">
-        <v>10.58823529411765</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L126" t="n">
         <v>646.7</v>
@@ -6705,7 +6727,7 @@
         <v>482</v>
       </c>
       <c r="K127" t="n">
-        <v>14.28571428571428</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L127" t="n">
         <v>647.3</v>
@@ -6756,7 +6778,7 @@
         <v>482</v>
       </c>
       <c r="K128" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L128" t="n">
         <v>648.2</v>
@@ -6807,7 +6829,7 @@
         <v>488</v>
       </c>
       <c r="K129" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L129" t="n">
         <v>649</v>
@@ -6858,7 +6880,7 @@
         <v>489</v>
       </c>
       <c r="K130" t="n">
-        <v>19.48051948051948</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>649.8</v>
@@ -6909,7 +6931,7 @@
         <v>502</v>
       </c>
       <c r="K131" t="n">
-        <v>25.30120481927711</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L131" t="n">
         <v>651.8</v>
@@ -6960,7 +6982,7 @@
         <v>510</v>
       </c>
       <c r="K132" t="n">
-        <v>25.30120481927711</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L132" t="n">
         <v>652.7</v>
@@ -7011,7 +7033,7 @@
         <v>511</v>
       </c>
       <c r="K133" t="n">
-        <v>25.30120481927711</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L133" t="n">
         <v>653.5</v>
@@ -7062,7 +7084,7 @@
         <v>516</v>
       </c>
       <c r="K134" t="n">
-        <v>25.30120481927711</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L134" t="n">
         <v>654.6</v>
@@ -7113,7 +7135,7 @@
         <v>521</v>
       </c>
       <c r="K135" t="n">
-        <v>16.27906976744186</v>
+        <v>5</v>
       </c>
       <c r="L135" t="n">
         <v>654.2</v>
@@ -7164,7 +7186,7 @@
         <v>522</v>
       </c>
       <c r="K136" t="n">
-        <v>12.19512195121951</v>
+        <v>5</v>
       </c>
       <c r="L136" t="n">
         <v>654.5</v>
@@ -7215,7 +7237,7 @@
         <v>525</v>
       </c>
       <c r="K137" t="n">
-        <v>13.25301204819277</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L137" t="n">
         <v>655</v>
@@ -7266,7 +7288,7 @@
         <v>528</v>
       </c>
       <c r="K138" t="n">
-        <v>13.25301204819277</v>
+        <v>-10</v>
       </c>
       <c r="L138" t="n">
         <v>655.2</v>
@@ -7317,7 +7339,7 @@
         <v>528</v>
       </c>
       <c r="K139" t="n">
-        <v>5.263157894736842</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L139" t="n">
         <v>654.8</v>
@@ -7368,7 +7390,7 @@
         <v>532</v>
       </c>
       <c r="K140" t="n">
-        <v>-1.265822784810127</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>653.9</v>
@@ -7419,7 +7441,7 @@
         <v>534</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L141" t="n">
         <v>651.9</v>
@@ -7470,7 +7492,7 @@
         <v>534</v>
       </c>
       <c r="K142" t="n">
-        <v>-3.896103896103896</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L142" t="n">
         <v>650.7</v>
@@ -7521,7 +7543,7 @@
         <v>537</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L143" t="n">
         <v>649.3</v>
@@ -7572,7 +7594,7 @@
         <v>539</v>
       </c>
       <c r="K144" t="n">
-        <v>5.405405405405405</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L144" t="n">
         <v>648.6</v>
@@ -7623,7 +7645,7 @@
         <v>543</v>
       </c>
       <c r="K145" t="n">
-        <v>-2.941176470588235</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L145" t="n">
         <v>648.8</v>
@@ -7674,7 +7696,7 @@
         <v>545</v>
       </c>
       <c r="K146" t="n">
-        <v>3.125</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>648.7</v>
@@ -7725,7 +7747,7 @@
         <v>547</v>
       </c>
       <c r="K147" t="n">
-        <v>-1.538461538461539</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L147" t="n">
         <v>648.1</v>
@@ -7776,7 +7798,7 @@
         <v>547</v>
       </c>
       <c r="K148" t="n">
-        <v>-1.538461538461539</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L148" t="n">
         <v>647.8</v>
@@ -7827,7 +7849,7 @@
         <v>550</v>
       </c>
       <c r="K149" t="n">
-        <v>-6.451612903225806</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L149" t="n">
         <v>647.8</v>
@@ -7878,7 +7900,7 @@
         <v>553</v>
       </c>
       <c r="K150" t="n">
-        <v>-12.5</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L150" t="n">
         <v>647.9</v>
@@ -7929,7 +7951,7 @@
         <v>558</v>
       </c>
       <c r="K151" t="n">
-        <v>-46.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L151" t="n">
         <v>647.3</v>
@@ -7980,7 +8002,7 @@
         <v>561</v>
       </c>
       <c r="K152" t="n">
-        <v>-41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L152" t="n">
         <v>646.4</v>
@@ -8031,7 +8053,7 @@
         <v>563</v>
       </c>
       <c r="K153" t="n">
-        <v>-42.30769230769231</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L153" t="n">
         <v>645.6</v>
@@ -8082,7 +8104,7 @@
         <v>565</v>
       </c>
       <c r="K154" t="n">
-        <v>-38.77551020408163</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L154" t="n">
         <v>644.4</v>
@@ -8133,7 +8155,7 @@
         <v>568</v>
       </c>
       <c r="K155" t="n">
-        <v>-36.17021276595745</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L155" t="n">
         <v>642.5</v>
@@ -8184,7 +8206,7 @@
         <v>573</v>
       </c>
       <c r="K156" t="n">
-        <v>-25.49019607843137</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L156" t="n">
         <v>641.3</v>
@@ -8235,7 +8257,7 @@
         <v>575</v>
       </c>
       <c r="K157" t="n">
-        <v>-36</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L157" t="n">
         <v>640.1</v>
@@ -8286,7 +8308,7 @@
         <v>585</v>
       </c>
       <c r="K158" t="n">
-        <v>-43.85964912280701</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L158" t="n">
         <v>637.9</v>
@@ -8337,7 +8359,7 @@
         <v>597</v>
       </c>
       <c r="K159" t="n">
-        <v>-18.84057971014493</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L159" t="n">
         <v>636.6</v>
@@ -8388,7 +8410,7 @@
         <v>606</v>
       </c>
       <c r="K160" t="n">
-        <v>-24.32432432432433</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L160" t="n">
         <v>634.7</v>
@@ -8439,7 +8461,7 @@
         <v>607</v>
       </c>
       <c r="K161" t="n">
-        <v>-28.76712328767123</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L161" t="n">
         <v>633.2</v>
@@ -8490,7 +8512,7 @@
         <v>618</v>
       </c>
       <c r="K162" t="n">
-        <v>-11.9047619047619</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L162" t="n">
         <v>633.1</v>
@@ -8541,7 +8563,7 @@
         <v>620</v>
       </c>
       <c r="K163" t="n">
-        <v>-6.024096385542169</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L163" t="n">
         <v>633.4</v>
@@ -8592,7 +8614,7 @@
         <v>623</v>
       </c>
       <c r="K164" t="n">
-        <v>-4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>634.2</v>
@@ -8643,7 +8665,7 @@
         <v>623</v>
       </c>
       <c r="K165" t="n">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="L165" t="n">
         <v>635.3</v>
@@ -8694,7 +8716,7 @@
         <v>623</v>
       </c>
       <c r="K166" t="n">
-        <v>-7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L166" t="n">
         <v>635.9</v>
@@ -8745,7 +8767,7 @@
         <v>625</v>
       </c>
       <c r="K167" t="n">
-        <v>-2.564102564102564</v>
+        <v>50</v>
       </c>
       <c r="L167" t="n">
         <v>636.9</v>
@@ -8796,7 +8818,7 @@
         <v>627</v>
       </c>
       <c r="K168" t="n">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>638.7</v>
@@ -8847,7 +8869,7 @@
         <v>630</v>
       </c>
       <c r="K169" t="n">
-        <v>-5</v>
+        <v>75</v>
       </c>
       <c r="L169" t="n">
         <v>639.6</v>
@@ -8898,7 +8920,7 @@
         <v>630</v>
       </c>
       <c r="K170" t="n">
-        <v>-1.298701298701299</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L170" t="n">
         <v>641.4</v>
@@ -8949,7 +8971,7 @@
         <v>633</v>
       </c>
       <c r="K171" t="n">
-        <v>9.333333333333334</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>643.6</v>
@@ -9000,7 +9022,7 @@
         <v>633</v>
       </c>
       <c r="K172" t="n">
-        <v>13.88888888888889</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L172" t="n">
         <v>644.7</v>
@@ -9051,7 +9073,7 @@
         <v>634</v>
       </c>
       <c r="K173" t="n">
-        <v>18.30985915492958</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L173" t="n">
         <v>645.7</v>
@@ -9102,7 +9124,7 @@
         <v>634</v>
       </c>
       <c r="K174" t="n">
-        <v>21.73913043478261</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L174" t="n">
         <v>646.4</v>
@@ -9153,7 +9175,7 @@
         <v>634</v>
       </c>
       <c r="K175" t="n">
-        <v>27.27272727272727</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L175" t="n">
         <v>647.1</v>
@@ -9204,7 +9226,7 @@
         <v>635</v>
       </c>
       <c r="K176" t="n">
-        <v>22.58064516129032</v>
+        <v>60</v>
       </c>
       <c r="L176" t="n">
         <v>647.9</v>
@@ -9255,7 +9277,7 @@
         <v>639</v>
       </c>
       <c r="K177" t="n">
-        <v>31.25</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>648.9</v>
@@ -9306,7 +9328,7 @@
         <v>640</v>
       </c>
       <c r="K178" t="n">
-        <v>56.36363636363636</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>650.2</v>
@@ -9357,7 +9379,7 @@
         <v>640</v>
       </c>
       <c r="K179" t="n">
-        <v>44.18604651162791</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>651.2</v>
@@ -9408,7 +9430,7 @@
         <v>641</v>
       </c>
       <c r="K180" t="n">
-        <v>82.85714285714286</v>
+        <v>100</v>
       </c>
       <c r="L180" t="n">
         <v>652.3</v>
@@ -9459,7 +9481,7 @@
         <v>644</v>
       </c>
       <c r="K181" t="n">
-        <v>72.97297297297297</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L181" t="n">
         <v>652.8</v>
@@ -9510,7 +9532,7 @@
         <v>645</v>
       </c>
       <c r="K182" t="n">
-        <v>55.55555555555556</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L182" t="n">
         <v>653.2</v>
@@ -9561,7 +9583,7 @@
         <v>646</v>
       </c>
       <c r="K183" t="n">
-        <v>46.15384615384615</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>653.4</v>
@@ -9612,7 +9634,7 @@
         <v>648</v>
       </c>
       <c r="K184" t="n">
-        <v>44</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L184" t="n">
         <v>653.8</v>
@@ -9663,7 +9685,7 @@
         <v>650</v>
       </c>
       <c r="K185" t="n">
-        <v>48.14814814814815</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>654.4</v>
@@ -9714,7 +9736,7 @@
         <v>654</v>
       </c>
       <c r="K186" t="n">
-        <v>54.83870967741935</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>655.3</v>
@@ -9765,7 +9787,7 @@
         <v>664</v>
       </c>
       <c r="K187" t="n">
-        <v>64.1025641025641</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L187" t="n">
         <v>656.8</v>
@@ -9816,7 +9838,7 @@
         <v>669</v>
       </c>
       <c r="K188" t="n">
-        <v>76.19047619047619</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L188" t="n">
         <v>658.7</v>
@@ -9867,7 +9889,7 @@
         <v>674</v>
       </c>
       <c r="K189" t="n">
-        <v>77.27272727272727</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="L189" t="n">
         <v>661.1</v>
@@ -9918,7 +9940,7 @@
         <v>675</v>
       </c>
       <c r="K190" t="n">
-        <v>77.77777777777779</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="L190" t="n">
         <v>663.5</v>
@@ -9969,7 +9991,7 @@
         <v>680</v>
       </c>
       <c r="K191" t="n">
-        <v>57.44680851063831</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L191" t="n">
         <v>665.7</v>
@@ -10020,7 +10042,7 @@
         <v>682</v>
       </c>
       <c r="K192" t="n">
-        <v>51.02040816326531</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="L192" t="n">
         <v>667.8</v>
@@ -10071,7 +10093,7 @@
         <v>686</v>
       </c>
       <c r="K193" t="n">
-        <v>38.46153846153847</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L193" t="n">
         <v>669.6</v>
@@ -10122,7 +10144,7 @@
         <v>689</v>
       </c>
       <c r="K194" t="n">
-        <v>41.81818181818181</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L194" t="n">
         <v>671.5</v>
@@ -10173,7 +10195,7 @@
         <v>690</v>
       </c>
       <c r="K195" t="n">
-        <v>39.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>673.1</v>
@@ -10224,7 +10246,7 @@
         <v>691</v>
       </c>
       <c r="K196" t="n">
-        <v>39.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L196" t="n">
         <v>674.4</v>
@@ -10275,7 +10297,7 @@
         <v>694</v>
       </c>
       <c r="K197" t="n">
-        <v>27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L197" t="n">
         <v>674.4</v>
@@ -10326,7 +10348,7 @@
         <v>697</v>
       </c>
       <c r="K198" t="n">
-        <v>29.82456140350877</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L198" t="n">
         <v>674.2</v>
@@ -10377,7 +10399,7 @@
         <v>700</v>
       </c>
       <c r="K199" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L199" t="n">
         <v>673.8</v>
@@ -10428,7 +10450,7 @@
         <v>722</v>
       </c>
       <c r="K200" t="n">
-        <v>-3.703703703703703</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L200" t="n">
         <v>671.1</v>
@@ -10479,7 +10501,7 @@
         <v>724</v>
       </c>
       <c r="K201" t="n">
-        <v>2.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L201" t="n">
         <v>669.1</v>
@@ -10530,7 +10552,7 @@
         <v>724</v>
       </c>
       <c r="K202" t="n">
-        <v>3.79746835443038</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L202" t="n">
         <v>667.3</v>
@@ -10581,7 +10603,7 @@
         <v>730</v>
       </c>
       <c r="K203" t="n">
-        <v>-2.380952380952381</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L203" t="n">
         <v>665.3</v>
@@ -10632,7 +10654,7 @@
         <v>737</v>
       </c>
       <c r="K204" t="n">
-        <v>3.370786516853932</v>
+        <v>-31.91489361702128</v>
       </c>
       <c r="L204" t="n">
         <v>663.7</v>
@@ -10683,7 +10705,7 @@
         <v>748</v>
       </c>
       <c r="K205" t="n">
-        <v>-10.20408163265306</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L205" t="n">
         <v>661.1</v>
@@ -10734,7 +10756,7 @@
         <v>753</v>
       </c>
       <c r="K206" t="n">
-        <v>-19.19191919191919</v>
+        <v>-49.15254237288136</v>
       </c>
       <c r="L206" t="n">
         <v>657.9</v>
@@ -10785,7 +10807,7 @@
         <v>763</v>
       </c>
       <c r="K207" t="n">
-        <v>-19.19191919191919</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>656</v>
@@ -10836,7 +10858,7 @@
         <v>778</v>
       </c>
       <c r="K208" t="n">
-        <v>-35.77981651376147</v>
+        <v>-51.28205128205128</v>
       </c>
       <c r="L208" t="n">
         <v>652.3</v>
@@ -10887,7 +10909,7 @@
         <v>779</v>
       </c>
       <c r="K209" t="n">
-        <v>-40.95238095238095</v>
+        <v>-29.82456140350877</v>
       </c>
       <c r="L209" t="n">
         <v>648.4</v>
@@ -10938,7 +10960,7 @@
         <v>780</v>
       </c>
       <c r="K210" t="n">
-        <v>-42.85714285714285</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L210" t="n">
         <v>646.6</v>
@@ -10989,7 +11011,7 @@
         <v>781</v>
       </c>
       <c r="K211" t="n">
-        <v>-40.5940594059406</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L211" t="n">
         <v>644.5</v>
@@ -11040,7 +11062,7 @@
         <v>783</v>
       </c>
       <c r="K212" t="n">
-        <v>-40.5940594059406</v>
+        <v>-32.0754716981132</v>
       </c>
       <c r="L212" t="n">
         <v>642.2</v>
@@ -11091,7 +11113,7 @@
         <v>783</v>
       </c>
       <c r="K213" t="n">
-        <v>-38.14432989690722</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L213" t="n">
         <v>640.5</v>
@@ -11142,7 +11164,7 @@
         <v>786</v>
       </c>
       <c r="K214" t="n">
-        <v>-44.32989690721649</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L214" t="n">
         <v>637.8</v>
@@ -11193,7 +11215,7 @@
         <v>803</v>
       </c>
       <c r="K215" t="n">
-        <v>-22.12389380530973</v>
+        <v>12</v>
       </c>
       <c r="L215" t="n">
         <v>637.9</v>
@@ -11244,7 +11266,7 @@
         <v>805</v>
       </c>
       <c r="K216" t="n">
-        <v>-24.56140350877193</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>638.3</v>
@@ -11295,7 +11317,7 @@
         <v>813</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571428</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L217" t="n">
         <v>638.5</v>
@@ -11346,7 +11368,7 @@
         <v>829</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.03030303030303</v>
+        <v>64</v>
       </c>
       <c r="L218" t="n">
         <v>641.8</v>
@@ -11397,7 +11419,7 @@
         <v>830</v>
       </c>
       <c r="K219" t="n">
-        <v>-4.615384615384616</v>
+        <v>68</v>
       </c>
       <c r="L219" t="n">
         <v>645.1</v>
@@ -11448,7 +11470,7 @@
         <v>836</v>
       </c>
       <c r="K220" t="n">
-        <v>19.29824561403509</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="L220" t="n">
         <v>649.1</v>
@@ -11499,7 +11521,7 @@
         <v>838</v>
       </c>
       <c r="K221" t="n">
-        <v>15.78947368421053</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="L221" t="n">
         <v>653</v>
@@ -11550,7 +11572,7 @@
         <v>870</v>
       </c>
       <c r="K222" t="n">
-        <v>-9.58904109589041</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L222" t="n">
         <v>653.9</v>
@@ -11601,7 +11623,7 @@
         <v>890</v>
       </c>
       <c r="K223" t="n">
-        <v>7.5</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L223" t="n">
         <v>656.8</v>
@@ -11652,7 +11674,7 @@
         <v>910</v>
       </c>
       <c r="K224" t="n">
-        <v>-8.670520231213873</v>
+        <v>-4.672897196261682</v>
       </c>
       <c r="L224" t="n">
         <v>658</v>
@@ -11703,7 +11725,7 @@
         <v>912</v>
       </c>
       <c r="K225" t="n">
-        <v>-1.219512195121951</v>
+        <v>-0.9345794392523363</v>
       </c>
       <c r="L225" t="n">
         <v>657.7</v>
@@ -11754,7 +11776,7 @@
         <v>918</v>
       </c>
       <c r="K226" t="n">
-        <v>5.454545454545454</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L226" t="n">
         <v>658.2</v>
@@ -11805,7 +11827,7 @@
         <v>921</v>
       </c>
       <c r="K227" t="n">
-        <v>-2.531645569620253</v>
+        <v>-23.91304347826087</v>
       </c>
       <c r="L227" t="n">
         <v>657.6</v>
@@ -11856,7 +11878,7 @@
         <v>921</v>
       </c>
       <c r="K228" t="n">
-        <v>7.692307692307693</v>
+        <v>-25.27472527472527</v>
       </c>
       <c r="L228" t="n">
         <v>655.4</v>
@@ -11907,7 +11929,7 @@
         <v>921</v>
       </c>
       <c r="K229" t="n">
-        <v>7.042253521126761</v>
+        <v>-34.11764705882353</v>
       </c>
       <c r="L229" t="n">
         <v>653.1</v>
@@ -11958,7 +11980,7 @@
         <v>924</v>
       </c>
       <c r="K230" t="n">
-        <v>9.722222222222223</v>
+        <v>-27.90697674418605</v>
       </c>
       <c r="L230" t="n">
         <v>650.5</v>
@@ -12009,7 +12031,7 @@
         <v>929</v>
       </c>
       <c r="K231" t="n">
-        <v>6.756756756756757</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L231" t="n">
         <v>647.6</v>
@@ -12060,7 +12082,7 @@
         <v>933</v>
       </c>
       <c r="K232" t="n">
-        <v>10.66666666666667</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L232" t="n">
         <v>648.3</v>
@@ -12111,7 +12133,7 @@
         <v>941</v>
       </c>
       <c r="K233" t="n">
-        <v>5.063291139240507</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L233" t="n">
         <v>646.2</v>
@@ -12162,7 +12184,7 @@
         <v>950</v>
       </c>
       <c r="K234" t="n">
-        <v>12.19512195121951</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L234" t="n">
         <v>647</v>
@@ -12213,7 +12235,7 @@
         <v>953</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L235" t="n">
         <v>647.3</v>
@@ -12264,7 +12286,7 @@
         <v>956</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.6622516556291391</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L236" t="n">
         <v>646.7</v>
@@ -12315,7 +12337,7 @@
         <v>963</v>
       </c>
       <c r="K237" t="n">
-        <v>-1.333333333333333</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L237" t="n">
         <v>647.1</v>
@@ -12366,7 +12388,7 @@
         <v>972</v>
       </c>
       <c r="K238" t="n">
-        <v>-18.88111888111888</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L238" t="n">
         <v>646.6</v>
@@ -12417,7 +12439,7 @@
         <v>981</v>
       </c>
       <c r="K239" t="n">
-        <v>-12.58278145695364</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L239" t="n">
         <v>647</v>
@@ -12468,7 +12490,7 @@
         <v>982</v>
       </c>
       <c r="K240" t="n">
-        <v>-17.80821917808219</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L240" t="n">
         <v>647</v>
@@ -12519,7 +12541,7 @@
         <v>993</v>
       </c>
       <c r="K241" t="n">
-        <v>-22.58064516129032</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L241" t="n">
         <v>646.4</v>
@@ -12570,7 +12592,7 @@
         <v>993</v>
       </c>
       <c r="K242" t="n">
-        <v>-2.439024390243902</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L242" t="n">
         <v>645.4</v>
@@ -12621,7 +12643,7 @@
         <v>993</v>
       </c>
       <c r="K243" t="n">
-        <v>-22.33009708737864</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L243" t="n">
         <v>645.2</v>
@@ -12672,7 +12694,7 @@
         <v>994</v>
       </c>
       <c r="K244" t="n">
-        <v>-4.761904761904762</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L244" t="n">
         <v>644</v>
@@ -12723,7 +12745,7 @@
         <v>1009</v>
       </c>
       <c r="K245" t="n">
-        <v>9.278350515463918</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L245" t="n">
         <v>644.6</v>
@@ -12774,7 +12796,7 @@
         <v>1009</v>
       </c>
       <c r="K246" t="n">
-        <v>3.296703296703297</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L246" t="n">
         <v>645.5</v>
@@ -12825,7 +12847,7 @@
         <v>1019</v>
       </c>
       <c r="K247" t="n">
-        <v>-4.081632653061225</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L247" t="n">
         <v>644.7</v>
@@ -12876,7 +12898,7 @@
         <v>1024</v>
       </c>
       <c r="K248" t="n">
-        <v>-8.737864077669903</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L248" t="n">
         <v>644.3</v>
@@ -12927,7 +12949,7 @@
         <v>1026</v>
       </c>
       <c r="K249" t="n">
-        <v>-6.666666666666667</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L249" t="n">
         <v>643.2</v>
@@ -12978,7 +13000,7 @@
         <v>1027</v>
       </c>
       <c r="K250" t="n">
-        <v>-10.67961165048544</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>642.1</v>
@@ -13029,7 +13051,7 @@
         <v>1037</v>
       </c>
       <c r="K251" t="n">
-        <v>3.703703703703703</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L251" t="n">
         <v>643.1</v>
@@ -13080,7 +13102,7 @@
         <v>1037</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L252" t="n">
         <v>644.1</v>
@@ -13131,7 +13153,7 @@
         <v>1037</v>
       </c>
       <c r="K253" t="n">
-        <v>8.333333333333332</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L253" t="n">
         <v>645.1</v>
@@ -13182,7 +13204,7 @@
         <v>1038</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L254" t="n">
         <v>646.3</v>
@@ -13233,7 +13255,7 @@
         <v>1042</v>
       </c>
       <c r="K255" t="n">
-        <v>7.865168539325842</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L255" t="n">
         <v>646.4</v>
@@ -13284,7 +13306,7 @@
         <v>1043</v>
       </c>
       <c r="K256" t="n">
-        <v>12.64367816091954</v>
+        <v>50</v>
       </c>
       <c r="L256" t="n">
         <v>646.6</v>
@@ -13335,7 +13357,7 @@
         <v>1046</v>
       </c>
       <c r="K257" t="n">
-        <v>8.433734939759036</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L257" t="n">
         <v>648.1</v>
@@ -13386,7 +13408,7 @@
         <v>1055</v>
       </c>
       <c r="K258" t="n">
-        <v>8.433734939759036</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L258" t="n">
         <v>649.2</v>
@@ -13437,7 +13459,7 @@
         <v>1058</v>
       </c>
       <c r="K259" t="n">
-        <v>-6.493506493506493</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L259" t="n">
         <v>649.8</v>
@@ -13488,7 +13510,7 @@
         <v>1063</v>
       </c>
       <c r="K260" t="n">
-        <v>1.234567901234568</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L260" t="n">
         <v>651</v>
@@ -13539,7 +13561,7 @@
         <v>1069</v>
       </c>
       <c r="K261" t="n">
-        <v>7.894736842105263</v>
+        <v>-12.5</v>
       </c>
       <c r="L261" t="n">
         <v>650.6</v>
@@ -13590,7 +13612,7 @@
         <v>1074</v>
       </c>
       <c r="K262" t="n">
-        <v>13.58024691358025</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L262" t="n">
         <v>650.7</v>
@@ -13641,7 +13663,7 @@
         <v>1079</v>
       </c>
       <c r="K263" t="n">
-        <v>18.6046511627907</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L263" t="n">
         <v>651.3</v>
@@ -13692,7 +13714,7 @@
         <v>1084</v>
       </c>
       <c r="K264" t="n">
-        <v>13.33333333333333</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L264" t="n">
         <v>651.3</v>
@@ -13743,7 +13765,7 @@
         <v>1089</v>
       </c>
       <c r="K265" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>651.4</v>
@@ -13794,7 +13816,7 @@
         <v>1090</v>
       </c>
       <c r="K266" t="n">
-        <v>3.703703703703703</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L266" t="n">
         <v>651.5</v>
@@ -13845,7 +13867,7 @@
         <v>1093</v>
       </c>
       <c r="K267" t="n">
-        <v>21.62162162162162</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L267" t="n">
         <v>651.6</v>
@@ -13896,7 +13918,7 @@
         <v>1103</v>
       </c>
       <c r="K268" t="n">
-        <v>13.92405063291139</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L268" t="n">
         <v>651.6</v>
@@ -13947,7 +13969,7 @@
         <v>1104</v>
       </c>
       <c r="K269" t="n">
-        <v>12.82051282051282</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L269" t="n">
         <v>652</v>
@@ -13998,7 +14020,7 @@
         <v>1107</v>
       </c>
       <c r="K270" t="n">
-        <v>17.5</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L270" t="n">
         <v>652.2</v>
@@ -14049,7 +14071,7 @@
         <v>1114</v>
       </c>
       <c r="K271" t="n">
-        <v>-3.896103896103896</v>
+        <v>-10</v>
       </c>
       <c r="L271" t="n">
         <v>652.3</v>
@@ -14100,7 +14122,7 @@
         <v>1121</v>
       </c>
       <c r="K272" t="n">
-        <v>4.761904761904762</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L272" t="n">
         <v>652.6</v>
@@ -14151,7 +14173,7 @@
         <v>1129</v>
       </c>
       <c r="K273" t="n">
-        <v>-4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L273" t="n">
         <v>651.6</v>
@@ -14202,7 +14224,7 @@
         <v>1129</v>
       </c>
       <c r="K274" t="n">
-        <v>-5.494505494505495</v>
+        <v>-25</v>
       </c>
       <c r="L274" t="n">
         <v>651.1</v>
@@ -14253,7 +14275,7 @@
         <v>1130</v>
       </c>
       <c r="K275" t="n">
-        <v>-11.36363636363636</v>
+        <v>-30</v>
       </c>
       <c r="L275" t="n">
         <v>650</v>
@@ -14304,7 +14326,7 @@
         <v>1132</v>
       </c>
       <c r="K276" t="n">
-        <v>-10.1123595505618</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>649</v>
@@ -14355,7 +14377,7 @@
         <v>1137</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.692307692307693</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L277" t="n">
         <v>648.2</v>
@@ -14406,7 +14428,7 @@
         <v>1142</v>
       </c>
       <c r="K278" t="n">
-        <v>-3.448275862068965</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L278" t="n">
         <v>647.9</v>
@@ -14457,7 +14479,7 @@
         <v>1142</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L279" t="n">
         <v>647.5</v>
@@ -14508,7 +14530,7 @@
         <v>1142</v>
       </c>
       <c r="K280" t="n">
-        <v>-6.329113924050633</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>646.8</v>
@@ -14559,7 +14581,7 @@
         <v>1142</v>
       </c>
       <c r="K281" t="n">
-        <v>1.36986301369863</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>646.8</v>
@@ -14610,7 +14632,7 @@
         <v>1142</v>
       </c>
       <c r="K282" t="n">
-        <v>-5.88235294117647</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L282" t="n">
         <v>646.1</v>
@@ -14661,7 +14683,7 @@
         <v>1143</v>
       </c>
       <c r="K283" t="n">
-        <v>-15.625</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>646.1</v>
@@ -14712,7 +14734,7 @@
         <v>1143</v>
       </c>
       <c r="K284" t="n">
-        <v>-8.474576271186439</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L284" t="n">
         <v>646.1</v>
@@ -14763,7 +14785,7 @@
         <v>1143</v>
       </c>
       <c r="K285" t="n">
-        <v>-18.51851851851852</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L285" t="n">
         <v>646.2</v>
@@ -14814,7 +14836,7 @@
         <v>1143</v>
       </c>
       <c r="K286" t="n">
-        <v>-20.75471698113208</v>
+        <v>-100</v>
       </c>
       <c r="L286" t="n">
         <v>646.1</v>
@@ -14865,7 +14887,7 @@
         <v>1143</v>
       </c>
       <c r="K287" t="n">
-        <v>-28</v>
+        <v>-100</v>
       </c>
       <c r="L287" t="n">
         <v>645.5</v>
@@ -14916,7 +14938,7 @@
         <v>1143</v>
       </c>
       <c r="K288" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="L288" t="n">
         <v>645.4</v>
@@ -14967,7 +14989,7 @@
         <v>1143</v>
       </c>
       <c r="K289" t="n">
-        <v>-12.82051282051282</v>
+        <v>-100</v>
       </c>
       <c r="L289" t="n">
         <v>645.3</v>
@@ -15018,7 +15040,7 @@
         <v>1143</v>
       </c>
       <c r="K290" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L290" t="n">
         <v>645.2</v>
@@ -15069,7 +15091,7 @@
         <v>1143</v>
       </c>
       <c r="K291" t="n">
-        <v>-3.448275862068965</v>
+        <v>-100</v>
       </c>
       <c r="L291" t="n">
         <v>645.1</v>
@@ -15120,7 +15142,7 @@
         <v>1144</v>
       </c>
       <c r="K292" t="n">
-        <v>-39.1304347826087</v>
+        <v>-100</v>
       </c>
       <c r="L292" t="n">
         <v>644.9</v>
@@ -15273,7 +15295,7 @@
         <v>1145</v>
       </c>
       <c r="K295" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>644.9</v>
@@ -15324,7 +15346,7 @@
         <v>1146</v>
       </c>
       <c r="K296" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>644.8</v>
@@ -15375,7 +15397,7 @@
         <v>1147</v>
       </c>
       <c r="K297" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>644.8</v>
@@ -15426,7 +15448,7 @@
         <v>1150</v>
       </c>
       <c r="K298" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L298" t="n">
         <v>645.1</v>
@@ -15477,7 +15499,7 @@
         <v>1153</v>
       </c>
       <c r="K299" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>645.1</v>
@@ -15528,7 +15550,7 @@
         <v>1157</v>
       </c>
       <c r="K300" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L300" t="n">
         <v>644.7</v>
@@ -15579,7 +15601,7 @@
         <v>1164</v>
       </c>
       <c r="K301" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>645</v>
@@ -15630,7 +15652,7 @@
         <v>1172</v>
       </c>
       <c r="K302" t="n">
-        <v>-20</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L302" t="n">
         <v>644.6</v>
@@ -15681,7 +15703,7 @@
         <v>1174</v>
       </c>
       <c r="K303" t="n">
-        <v>-9.67741935483871</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L303" t="n">
         <v>644.3</v>
@@ -15732,7 +15754,7 @@
         <v>1179</v>
       </c>
       <c r="K304" t="n">
-        <v>-22.22222222222222</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L304" t="n">
         <v>643.5</v>
@@ -15783,7 +15805,7 @@
         <v>1179</v>
       </c>
       <c r="K305" t="n">
-        <v>-22.22222222222222</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L305" t="n">
         <v>642.7</v>
@@ -15834,7 +15856,7 @@
         <v>1186</v>
       </c>
       <c r="K306" t="n">
-        <v>-2.325581395348837</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L306" t="n">
         <v>642.7</v>
@@ -15885,7 +15907,7 @@
         <v>1187</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L307" t="n">
         <v>642.7</v>
@@ -15987,7 +16009,7 @@
         <v>1193</v>
       </c>
       <c r="K309" t="n">
-        <v>-12</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L309" t="n">
         <v>641.8</v>
@@ -16038,7 +16060,7 @@
         <v>1193</v>
       </c>
       <c r="K310" t="n">
-        <v>-12</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L310" t="n">
         <v>641.6</v>
@@ -16089,7 +16111,7 @@
         <v>1193</v>
       </c>
       <c r="K311" t="n">
-        <v>-12</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L311" t="n">
         <v>640.7</v>
@@ -16140,7 +16162,7 @@
         <v>1193</v>
       </c>
       <c r="K312" t="n">
-        <v>-10.20408163265306</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L312" t="n">
         <v>640.6</v>
@@ -16191,7 +16213,7 @@
         <v>1194</v>
       </c>
       <c r="K313" t="n">
-        <v>-14.28571428571428</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L313" t="n">
         <v>640.2</v>
@@ -16242,7 +16264,7 @@
         <v>1198</v>
       </c>
       <c r="K314" t="n">
-        <v>-20.75471698113208</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L314" t="n">
         <v>639.9</v>
@@ -16293,7 +16315,7 @@
         <v>1205</v>
       </c>
       <c r="K315" t="n">
-        <v>-6.666666666666667</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L315" t="n">
         <v>640.3</v>
@@ -16344,7 +16366,7 @@
         <v>1207</v>
       </c>
       <c r="K316" t="n">
-        <v>-1.639344262295082</v>
+        <v>-10</v>
       </c>
       <c r="L316" t="n">
         <v>640.2</v>
@@ -16395,7 +16417,7 @@
         <v>1219</v>
       </c>
       <c r="K317" t="n">
-        <v>-19.44444444444445</v>
+        <v>-43.75</v>
       </c>
       <c r="L317" t="n">
         <v>638.8</v>
@@ -16446,7 +16468,7 @@
         <v>1226</v>
       </c>
       <c r="K318" t="n">
-        <v>-13.1578947368421</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L318" t="n">
         <v>638.1</v>
@@ -16497,7 +16519,7 @@
         <v>1226</v>
       </c>
       <c r="K319" t="n">
-        <v>-9.58904109589041</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L319" t="n">
         <v>638</v>
@@ -16548,7 +16570,7 @@
         <v>1236</v>
       </c>
       <c r="K320" t="n">
-        <v>-16.45569620253164</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L320" t="n">
         <v>636.9</v>
@@ -16599,7 +16621,7 @@
         <v>1244</v>
       </c>
       <c r="K321" t="n">
-        <v>-15</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L321" t="n">
         <v>636.6</v>
@@ -16650,7 +16672,7 @@
         <v>1245</v>
       </c>
       <c r="K322" t="n">
-        <v>-4.10958904109589</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L322" t="n">
         <v>636.4</v>
@@ -16701,7 +16723,7 @@
         <v>1252</v>
       </c>
       <c r="K323" t="n">
-        <v>-15.38461538461539</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L323" t="n">
         <v>635.6</v>
@@ -16752,7 +16774,7 @@
         <v>1256</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571428</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L324" t="n">
         <v>634.8</v>
@@ -16803,7 +16825,7 @@
         <v>1274</v>
       </c>
       <c r="K325" t="n">
-        <v>7.368421052631578</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="L325" t="n">
         <v>635.1</v>
@@ -16854,7 +16876,7 @@
         <v>1288</v>
       </c>
       <c r="K326" t="n">
-        <v>-13.72549019607843</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="L326" t="n">
         <v>633.8</v>
@@ -16905,7 +16927,7 @@
         <v>1291</v>
       </c>
       <c r="K327" t="n">
-        <v>-11.53846153846154</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L327" t="n">
         <v>634</v>
@@ -16956,7 +16978,7 @@
         <v>1293</v>
       </c>
       <c r="K328" t="n">
-        <v>-13.20754716981132</v>
+        <v>-10.44776119402985</v>
       </c>
       <c r="L328" t="n">
         <v>633.3</v>
@@ -17007,7 +17029,7 @@
         <v>1302</v>
       </c>
       <c r="K329" t="n">
-        <v>0.9174311926605505</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L329" t="n">
         <v>633.5</v>
@@ -17058,7 +17080,7 @@
         <v>1302</v>
       </c>
       <c r="K330" t="n">
-        <v>0.9174311926605505</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L330" t="n">
         <v>634.7</v>
@@ -17109,7 +17131,7 @@
         <v>1303</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L331" t="n">
         <v>635</v>
@@ -17160,7 +17182,7 @@
         <v>1305</v>
       </c>
       <c r="K332" t="n">
-        <v>1.785714285714286</v>
+        <v>20.75471698113208</v>
       </c>
       <c r="L332" t="n">
         <v>635.4</v>
@@ -17211,7 +17233,7 @@
         <v>1305</v>
       </c>
       <c r="K333" t="n">
-        <v>2.702702702702703</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L333" t="n">
         <v>636.5</v>
@@ -17262,7 +17284,7 @@
         <v>1305</v>
       </c>
       <c r="K334" t="n">
-        <v>6.542056074766355</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L334" t="n">
         <v>638</v>
@@ -17313,7 +17335,7 @@
         <v>1305</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L335" t="n">
         <v>637.7</v>
@@ -17364,7 +17386,7 @@
         <v>1306</v>
       </c>
       <c r="K336" t="n">
-        <v>-3.03030303030303</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L336" t="n">
         <v>638.7</v>
@@ -17415,7 +17437,7 @@
         <v>1308</v>
       </c>
       <c r="K337" t="n">
-        <v>12.35955056179775</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>639.6</v>
@@ -17466,7 +17488,7 @@
         <v>1317</v>
       </c>
       <c r="K338" t="n">
-        <v>-5.494505494505495</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L338" t="n">
         <v>639.8</v>
@@ -17517,7 +17539,7 @@
         <v>1317</v>
       </c>
       <c r="K339" t="n">
-        <v>-5.494505494505495</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L339" t="n">
         <v>639.1</v>
@@ -17568,7 +17590,7 @@
         <v>1325</v>
       </c>
       <c r="K340" t="n">
-        <v>14.60674157303371</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L340" t="n">
         <v>639.2</v>
@@ -17619,7 +17641,7 @@
         <v>1326</v>
       </c>
       <c r="K341" t="n">
-        <v>4.878048780487805</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L341" t="n">
         <v>639.3</v>
@@ -17670,7 +17692,7 @@
         <v>1327</v>
       </c>
       <c r="K342" t="n">
-        <v>2.439024390243902</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L342" t="n">
         <v>639.1</v>
@@ -17721,7 +17743,7 @@
         <v>1331</v>
       </c>
       <c r="K343" t="n">
-        <v>6.329113924050633</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L343" t="n">
         <v>638.5</v>
@@ -17772,7 +17794,7 @@
         <v>1336</v>
       </c>
       <c r="K344" t="n">
-        <v>17.5</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L344" t="n">
         <v>638.4</v>
@@ -17823,7 +17845,7 @@
         <v>1337</v>
       </c>
       <c r="K345" t="n">
-        <v>-7.936507936507936</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L345" t="n">
         <v>638.2</v>
@@ -17874,7 +17896,7 @@
         <v>1337</v>
       </c>
       <c r="K346" t="n">
-        <v>18.36734693877551</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L346" t="n">
         <v>638.1</v>
@@ -17925,7 +17947,7 @@
         <v>1337</v>
       </c>
       <c r="K347" t="n">
-        <v>13.04347826086956</v>
+        <v>30</v>
       </c>
       <c r="L347" t="n">
         <v>637.8</v>
@@ -17976,7 +17998,7 @@
         <v>1338</v>
       </c>
       <c r="K348" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>638.5</v>
@@ -18027,7 +18049,7 @@
         <v>1339</v>
       </c>
       <c r="K349" t="n">
-        <v>-2.702702702702703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L349" t="n">
         <v>639.1</v>
@@ -18078,7 +18100,7 @@
         <v>1340</v>
       </c>
       <c r="K350" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L350" t="n">
         <v>638.8</v>
@@ -18129,7 +18151,7 @@
         <v>1346</v>
       </c>
       <c r="K351" t="n">
-        <v>-16.27906976744186</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L351" t="n">
         <v>638</v>
@@ -18180,7 +18202,7 @@
         <v>1352</v>
       </c>
       <c r="K352" t="n">
-        <v>-6.382978723404255</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L352" t="n">
         <v>637.9</v>
@@ -18231,7 +18253,7 @@
         <v>1362</v>
       </c>
       <c r="K353" t="n">
-        <v>-22.80701754385965</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L353" t="n">
         <v>637.2</v>
@@ -18282,7 +18304,7 @@
         <v>1367</v>
       </c>
       <c r="K354" t="n">
-        <v>-12.90322580645161</v>
+        <v>-20</v>
       </c>
       <c r="L354" t="n">
         <v>636.5</v>
@@ -18333,7 +18355,7 @@
         <v>1370</v>
       </c>
       <c r="K355" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L355" t="n">
         <v>636.2</v>
@@ -18384,7 +18406,7 @@
         <v>1371</v>
       </c>
       <c r="K356" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L356" t="n">
         <v>635.8</v>
@@ -18435,7 +18457,7 @@
         <v>1372</v>
       </c>
       <c r="K357" t="n">
-        <v>-9.375</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L357" t="n">
         <v>635.5</v>
@@ -18486,7 +18508,7 @@
         <v>1373</v>
       </c>
       <c r="K358" t="n">
-        <v>3.571428571428571</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L358" t="n">
         <v>635</v>
@@ -18537,7 +18559,7 @@
         <v>1373</v>
       </c>
       <c r="K359" t="n">
-        <v>3.571428571428571</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L359" t="n">
         <v>634.6</v>
@@ -18588,7 +18610,7 @@
         <v>1374</v>
       </c>
       <c r="K360" t="n">
-        <v>-10.20408163265306</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L360" t="n">
         <v>634.4</v>
@@ -18639,7 +18661,7 @@
         <v>1374</v>
       </c>
       <c r="K361" t="n">
-        <v>-8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L361" t="n">
         <v>634.8</v>
@@ -18690,7 +18712,7 @@
         <v>1374</v>
       </c>
       <c r="K362" t="n">
-        <v>-6.382978723404255</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L362" t="n">
         <v>634.6</v>
@@ -18741,7 +18763,7 @@
         <v>1374</v>
       </c>
       <c r="K363" t="n">
-        <v>2.325581395348837</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L363" t="n">
         <v>635.4</v>
@@ -18792,7 +18814,7 @@
         <v>1374</v>
       </c>
       <c r="K364" t="n">
-        <v>-10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>635.7</v>
@@ -18843,7 +18865,7 @@
         <v>1374</v>
       </c>
       <c r="K365" t="n">
-        <v>-8.108108108108109</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>635.7</v>
@@ -18894,7 +18916,7 @@
         <v>1374</v>
       </c>
       <c r="K366" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>635.8</v>
@@ -18945,7 +18967,7 @@
         <v>1374</v>
       </c>
       <c r="K367" t="n">
-        <v>-8.108108108108109</v>
+        <v>100</v>
       </c>
       <c r="L367" t="n">
         <v>635.8</v>
@@ -18996,7 +19018,7 @@
         <v>1377</v>
       </c>
       <c r="K368" t="n">
-        <v>-2.564102564102564</v>
+        <v>100</v>
       </c>
       <c r="L368" t="n">
         <v>636.2</v>
@@ -19047,7 +19069,7 @@
         <v>1377</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L369" t="n">
         <v>636.6</v>
@@ -19098,7 +19120,7 @@
         <v>1377</v>
       </c>
       <c r="K370" t="n">
-        <v>2.702702702702703</v>
+        <v>100</v>
       </c>
       <c r="L370" t="n">
         <v>636.9</v>
@@ -19149,7 +19171,7 @@
         <v>1377</v>
       </c>
       <c r="K371" t="n">
-        <v>22.58064516129032</v>
+        <v>100</v>
       </c>
       <c r="L371" t="n">
         <v>637.2</v>
@@ -19200,7 +19222,7 @@
         <v>1377</v>
       </c>
       <c r="K372" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L372" t="n">
         <v>637.5</v>
@@ -19251,7 +19273,7 @@
         <v>1380</v>
       </c>
       <c r="K373" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L373" t="n">
         <v>638.1</v>
@@ -19302,7 +19324,7 @@
         <v>1380</v>
       </c>
       <c r="K374" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L374" t="n">
         <v>638.7</v>
@@ -19353,7 +19375,7 @@
         <v>1381</v>
       </c>
       <c r="K375" t="n">
-        <v>45.45454545454545</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L375" t="n">
         <v>639.2</v>
@@ -19404,7 +19426,7 @@
         <v>1384</v>
       </c>
       <c r="K376" t="n">
-        <v>69.23076923076923</v>
+        <v>80</v>
       </c>
       <c r="L376" t="n">
         <v>640</v>
@@ -19455,7 +19477,7 @@
         <v>1389</v>
       </c>
       <c r="K377" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>640.3</v>
@@ -19506,7 +19528,7 @@
         <v>1392</v>
       </c>
       <c r="K378" t="n">
-        <v>36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L378" t="n">
         <v>640.6</v>
@@ -19557,7 +19579,7 @@
         <v>1395</v>
       </c>
       <c r="K379" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>640.6</v>
@@ -19608,7 +19630,7 @@
         <v>1396</v>
       </c>
       <c r="K380" t="n">
-        <v>18.18181818181818</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L380" t="n">
         <v>640.7</v>
@@ -19659,7 +19681,7 @@
         <v>1397</v>
       </c>
       <c r="K381" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>640.7</v>
@@ -19710,7 +19732,7 @@
         <v>1397</v>
       </c>
       <c r="K382" t="n">
-        <v>13.04347826086956</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L382" t="n">
         <v>640.7</v>
@@ -19761,7 +19783,7 @@
         <v>1397</v>
       </c>
       <c r="K383" t="n">
-        <v>13.04347826086956</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L383" t="n">
         <v>640.4</v>
@@ -19812,7 +19834,7 @@
         <v>1397</v>
       </c>
       <c r="K384" t="n">
-        <v>13.04347826086956</v>
+        <v>-12.5</v>
       </c>
       <c r="L384" t="n">
         <v>640.1</v>
@@ -19863,7 +19885,7 @@
         <v>1398</v>
       </c>
       <c r="K385" t="n">
-        <v>8.333333333333332</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L385" t="n">
         <v>639.8</v>
@@ -19914,7 +19936,7 @@
         <v>1399</v>
       </c>
       <c r="K386" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>639.3</v>
@@ -19965,7 +19987,7 @@
         <v>1399</v>
       </c>
       <c r="K387" t="n">
-        <v>12</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L387" t="n">
         <v>639.3</v>
@@ -20016,7 +20038,7 @@
         <v>1400</v>
       </c>
       <c r="K388" t="n">
-        <v>4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L388" t="n">
         <v>639.1</v>
@@ -20067,7 +20089,7 @@
         <v>1400</v>
       </c>
       <c r="K389" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>639.2</v>
@@ -20118,7 +20140,7 @@
         <v>1401</v>
       </c>
       <c r="K390" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L390" t="n">
         <v>639.3</v>
@@ -20169,7 +20191,7 @@
         <v>1401</v>
       </c>
       <c r="K391" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L391" t="n">
         <v>639.5</v>
@@ -20220,7 +20242,7 @@
         <v>1402</v>
       </c>
       <c r="K392" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L392" t="n">
         <v>639.8</v>
@@ -20271,7 +20293,7 @@
         <v>1405</v>
       </c>
       <c r="K393" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L393" t="n">
         <v>640.4</v>
@@ -20322,7 +20344,7 @@
         <v>1407</v>
       </c>
       <c r="K394" t="n">
-        <v>18.51851851851852</v>
+        <v>100</v>
       </c>
       <c r="L394" t="n">
         <v>641.2</v>
@@ -20373,7 +20395,7 @@
         <v>1414</v>
       </c>
       <c r="K395" t="n">
-        <v>39.39393939393939</v>
+        <v>100</v>
       </c>
       <c r="L395" t="n">
         <v>642.8</v>
@@ -20424,7 +20446,7 @@
         <v>1424</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L396" t="n">
         <v>643.3</v>
@@ -20475,7 +20497,7 @@
         <v>1426</v>
       </c>
       <c r="K397" t="n">
-        <v>18.91891891891892</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L397" t="n">
         <v>644</v>
@@ -20526,7 +20548,7 @@
         <v>1426</v>
       </c>
       <c r="K398" t="n">
-        <v>11.76470588235294</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L398" t="n">
         <v>644.6</v>
@@ -20577,7 +20599,7 @@
         <v>1426</v>
       </c>
       <c r="K399" t="n">
-        <v>22.58064516129032</v>
+        <v>20</v>
       </c>
       <c r="L399" t="n">
         <v>645.2</v>
@@ -20628,7 +20650,7 @@
         <v>1427</v>
       </c>
       <c r="K400" t="n">
-        <v>22.58064516129032</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L400" t="n">
         <v>645.8</v>
@@ -20679,7 +20701,7 @@
         <v>1429</v>
       </c>
       <c r="K401" t="n">
-        <v>31.25</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L401" t="n">
         <v>646.6</v>
@@ -20730,7 +20752,7 @@
         <v>1429</v>
       </c>
       <c r="K402" t="n">
-        <v>31.25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L402" t="n">
         <v>647.3</v>
@@ -20781,7 +20803,7 @@
         <v>1431</v>
       </c>
       <c r="K403" t="n">
-        <v>23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>647.5</v>
@@ -20832,7 +20854,7 @@
         <v>1431</v>
       </c>
       <c r="K404" t="n">
-        <v>23.52941176470588</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L404" t="n">
         <v>647.5</v>
@@ -20883,7 +20905,7 @@
         <v>1431</v>
       </c>
       <c r="K405" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L405" t="n">
         <v>646.8</v>
@@ -20934,7 +20956,7 @@
         <v>1431</v>
       </c>
       <c r="K406" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L406" t="n">
         <v>647.1</v>
@@ -20985,7 +21007,7 @@
         <v>1431</v>
       </c>
       <c r="K407" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L407" t="n">
         <v>647.2</v>
@@ -21036,7 +21058,7 @@
         <v>1432</v>
       </c>
       <c r="K408" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>647.4</v>
@@ -21087,7 +21109,7 @@
         <v>1433</v>
       </c>
       <c r="K409" t="n">
-        <v>21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>647.5</v>
@@ -21138,7 +21160,7 @@
         <v>1434</v>
       </c>
       <c r="K410" t="n">
-        <v>21.21212121212121</v>
+        <v>-20</v>
       </c>
       <c r="L410" t="n">
         <v>647.6</v>
@@ -21189,7 +21211,7 @@
         <v>1435</v>
       </c>
       <c r="K411" t="n">
-        <v>23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>647.6</v>
@@ -21240,7 +21262,7 @@
         <v>1435</v>
       </c>
       <c r="K412" t="n">
-        <v>21.21212121212121</v>
+        <v>50</v>
       </c>
       <c r="L412" t="n">
         <v>647.6</v>
@@ -21291,7 +21313,7 @@
         <v>1435</v>
       </c>
       <c r="K413" t="n">
-        <v>13.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L413" t="n">
         <v>647.8</v>
@@ -21342,7 +21364,7 @@
         <v>1436</v>
       </c>
       <c r="K414" t="n">
-        <v>3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L414" t="n">
         <v>647.9</v>
@@ -21393,7 +21415,7 @@
         <v>1438</v>
       </c>
       <c r="K415" t="n">
-        <v>-16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L415" t="n">
         <v>648.2</v>
@@ -21444,7 +21466,7 @@
         <v>1440</v>
       </c>
       <c r="K416" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L416" t="n">
         <v>648.7</v>
@@ -21495,7 +21517,7 @@
         <v>1445</v>
       </c>
       <c r="K417" t="n">
-        <v>5.263157894736842</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L417" t="n">
         <v>648.7</v>
@@ -21546,7 +21568,7 @@
         <v>1449</v>
       </c>
       <c r="K418" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L418" t="n">
         <v>648.2</v>
@@ -21597,7 +21619,7 @@
         <v>1454</v>
       </c>
       <c r="K419" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>648.3</v>
@@ -21648,7 +21670,7 @@
         <v>1455</v>
       </c>
       <c r="K420" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>648.4</v>
@@ -21699,7 +21721,7 @@
         <v>1456</v>
       </c>
       <c r="K421" t="n">
-        <v>-3.703703703703703</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L421" t="n">
         <v>648.3</v>
@@ -21750,7 +21772,7 @@
         <v>1460</v>
       </c>
       <c r="K422" t="n">
-        <v>9.67741935483871</v>
+        <v>12</v>
       </c>
       <c r="L422" t="n">
         <v>648.6</v>
@@ -21801,7 +21823,7 @@
         <v>1462</v>
       </c>
       <c r="K423" t="n">
-        <v>9.67741935483871</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L423" t="n">
         <v>648.7</v>
@@ -21852,7 +21874,7 @@
         <v>1462</v>
       </c>
       <c r="K424" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>648.9</v>
@@ -21903,7 +21925,7 @@
         <v>1463</v>
       </c>
       <c r="K425" t="n">
-        <v>12.5</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L425" t="n">
         <v>649</v>
@@ -21954,7 +21976,7 @@
         <v>1468</v>
       </c>
       <c r="K426" t="n">
-        <v>-2.702702702702703</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L426" t="n">
         <v>648.4</v>
@@ -22005,7 +22027,7 @@
         <v>1474</v>
       </c>
       <c r="K427" t="n">
-        <v>11.62790697674419</v>
+        <v>36</v>
       </c>
       <c r="L427" t="n">
         <v>648.9</v>
@@ -22056,7 +22078,7 @@
         <v>1474</v>
       </c>
       <c r="K428" t="n">
-        <v>9.523809523809524</v>
+        <v>20</v>
       </c>
       <c r="L428" t="n">
         <v>649.8</v>
@@ -22107,7 +22129,7 @@
         <v>1475</v>
       </c>
       <c r="K429" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L429" t="n">
         <v>650.3</v>
@@ -22158,7 +22180,7 @@
         <v>1476</v>
       </c>
       <c r="K430" t="n">
-        <v>14.28571428571428</v>
+        <v>30</v>
       </c>
       <c r="L430" t="n">
         <v>650.8</v>
@@ -22209,7 +22231,7 @@
         <v>1479</v>
       </c>
       <c r="K431" t="n">
-        <v>18.18181818181818</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L431" t="n">
         <v>651.7</v>
@@ -22260,7 +22282,7 @@
         <v>1482</v>
       </c>
       <c r="K432" t="n">
-        <v>23.40425531914894</v>
+        <v>50</v>
       </c>
       <c r="L432" t="n">
         <v>652.5</v>
@@ -22311,7 +22333,7 @@
         <v>1483</v>
       </c>
       <c r="K433" t="n">
-        <v>25</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L433" t="n">
         <v>653.6</v>
@@ -22362,7 +22384,7 @@
         <v>1486</v>
       </c>
       <c r="K434" t="n">
-        <v>32</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L434" t="n">
         <v>655</v>
@@ -22413,7 +22435,7 @@
         <v>1488</v>
       </c>
       <c r="K435" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="L435" t="n">
         <v>656.5</v>
@@ -22464,7 +22486,7 @@
         <v>1489</v>
       </c>
       <c r="K436" t="n">
-        <v>26.53061224489796</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L436" t="n">
         <v>658.4</v>
@@ -22515,7 +22537,7 @@
         <v>1497</v>
       </c>
       <c r="K437" t="n">
-        <v>50</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L437" t="n">
         <v>660.5</v>
@@ -22566,7 +22588,7 @@
         <v>1499</v>
       </c>
       <c r="K438" t="n">
-        <v>56.00000000000001</v>
+        <v>75</v>
       </c>
       <c r="L438" t="n">
         <v>662.4</v>
@@ -22617,7 +22639,7 @@
         <v>1500</v>
       </c>
       <c r="K439" t="n">
-        <v>47.82608695652174</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L439" t="n">
         <v>664.1</v>
@@ -22668,7 +22690,7 @@
         <v>1504</v>
       </c>
       <c r="K440" t="n">
-        <v>51.02040816326531</v>
+        <v>68</v>
       </c>
       <c r="L440" t="n">
         <v>666.1</v>
@@ -22719,7 +22741,7 @@
         <v>1508</v>
       </c>
       <c r="K441" t="n">
-        <v>42.30769230769231</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L441" t="n">
         <v>667.4</v>
@@ -22770,7 +22792,7 @@
         <v>1513</v>
       </c>
       <c r="K442" t="n">
-        <v>43.39622641509434</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L442" t="n">
         <v>668.9</v>
@@ -22821,7 +22843,7 @@
         <v>1518</v>
       </c>
       <c r="K443" t="n">
-        <v>53.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L443" t="n">
         <v>670.8</v>
@@ -22872,7 +22894,7 @@
         <v>1518</v>
       </c>
       <c r="K444" t="n">
-        <v>53.57142857142857</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L444" t="n">
         <v>672.4</v>
@@ -22923,7 +22945,7 @@
         <v>1521</v>
       </c>
       <c r="K445" t="n">
-        <v>44.82758620689656</v>
+        <v>37.5</v>
       </c>
       <c r="L445" t="n">
         <v>673.5</v>
@@ -22974,7 +22996,7 @@
         <v>1522</v>
       </c>
       <c r="K446" t="n">
-        <v>55.55555555555556</v>
+        <v>12</v>
       </c>
       <c r="L446" t="n">
         <v>674.6</v>
@@ -23025,7 +23047,7 @@
         <v>1531</v>
       </c>
       <c r="K447" t="n">
-        <v>26.31578947368421</v>
+        <v>-12.5</v>
       </c>
       <c r="L447" t="n">
         <v>674</v>
@@ -23076,7 +23098,7 @@
         <v>1541</v>
       </c>
       <c r="K448" t="n">
-        <v>37.3134328358209</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L448" t="n">
         <v>674.6</v>
@@ -23127,7 +23149,7 @@
         <v>1541</v>
       </c>
       <c r="K449" t="n">
-        <v>36.36363636363637</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L449" t="n">
         <v>675.3</v>
@@ -23178,7 +23200,7 @@
         <v>1542</v>
       </c>
       <c r="K450" t="n">
-        <v>36.36363636363637</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L450" t="n">
         <v>675.7</v>
@@ -23229,7 +23251,7 @@
         <v>1544</v>
       </c>
       <c r="K451" t="n">
-        <v>35.38461538461539</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L451" t="n">
         <v>676.7</v>
@@ -23280,7 +23302,7 @@
         <v>1544</v>
       </c>
       <c r="K452" t="n">
-        <v>32.25806451612903</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>677.2</v>
@@ -23331,7 +23353,7 @@
         <v>1544</v>
       </c>
       <c r="K453" t="n">
-        <v>31.14754098360656</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>677.2</v>
@@ -23382,7 +23404,7 @@
         <v>1549</v>
       </c>
       <c r="K454" t="n">
-        <v>17.46031746031746</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L454" t="n">
         <v>676.7</v>
@@ -23433,7 +23455,7 @@
         <v>1557</v>
       </c>
       <c r="K455" t="n">
-        <v>1.449275362318841</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L455" t="n">
         <v>675.7</v>
@@ -23484,7 +23506,7 @@
         <v>1569</v>
       </c>
       <c r="K456" t="n">
-        <v>17.5</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L456" t="n">
         <v>676</v>
@@ -23535,7 +23557,7 @@
         <v>1577</v>
       </c>
       <c r="K457" t="n">
-        <v>-2.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L457" t="n">
         <v>676.4</v>
@@ -23586,7 +23608,7 @@
         <v>1578</v>
       </c>
       <c r="K458" t="n">
-        <v>-1.265822784810127</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L458" t="n">
         <v>675.7</v>
@@ -23637,7 +23659,7 @@
         <v>1579</v>
       </c>
       <c r="K459" t="n">
-        <v>1.265822784810127</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L459" t="n">
         <v>675.1</v>
@@ -23688,7 +23710,7 @@
         <v>1581</v>
       </c>
       <c r="K460" t="n">
-        <v>-6.493506493506493</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L460" t="n">
         <v>674.2</v>
@@ -23739,7 +23761,7 @@
         <v>1581</v>
       </c>
       <c r="K461" t="n">
-        <v>-1.36986301369863</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L461" t="n">
         <v>673.1</v>
@@ -23790,7 +23812,7 @@
         <v>1591</v>
       </c>
       <c r="K462" t="n">
-        <v>-20.51282051282051</v>
+        <v>-44.68085106382978</v>
       </c>
       <c r="L462" t="n">
         <v>671</v>
@@ -23841,7 +23863,7 @@
         <v>1601</v>
       </c>
       <c r="K463" t="n">
-        <v>-13.25301204819277</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L463" t="n">
         <v>669.9</v>
@@ -23892,7 +23914,7 @@
         <v>1611</v>
       </c>
       <c r="K464" t="n">
-        <v>-22.58064516129032</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L464" t="n">
         <v>668.3</v>
@@ -23943,7 +23965,7 @@
         <v>1612</v>
       </c>
       <c r="K465" t="n">
-        <v>-20.87912087912088</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L465" t="n">
         <v>667.4</v>
@@ -23994,7 +24016,7 @@
         <v>1613</v>
       </c>
       <c r="K466" t="n">
-        <v>-18.68131868131868</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>665.4</v>
@@ -24045,7 +24067,7 @@
         <v>1619</v>
       </c>
       <c r="K467" t="n">
-        <v>-15.90909090909091</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L467" t="n">
         <v>663.6</v>
@@ -24096,7 +24118,7 @@
         <v>1620</v>
       </c>
       <c r="K468" t="n">
-        <v>-31.64556962025317</v>
+        <v>-46.34146341463415</v>
       </c>
       <c r="L468" t="n">
         <v>661.8</v>
@@ -24147,7 +24169,7 @@
         <v>1622</v>
       </c>
       <c r="K469" t="n">
-        <v>-33.33333333333333</v>
+        <v>-46.34146341463415</v>
       </c>
       <c r="L469" t="n">
         <v>659.7</v>
@@ -24198,7 +24220,7 @@
         <v>1625</v>
       </c>
       <c r="K470" t="n">
-        <v>-30.12048192771084</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L470" t="n">
         <v>658.1</v>
@@ -24249,7 +24271,7 @@
         <v>1625</v>
       </c>
       <c r="K471" t="n">
-        <v>-33.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L471" t="n">
         <v>656.5</v>
@@ -24300,7 +24322,7 @@
         <v>1631</v>
       </c>
       <c r="K472" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>656.5</v>
@@ -24351,7 +24373,7 @@
         <v>1639</v>
       </c>
       <c r="K473" t="n">
-        <v>-30.52631578947368</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L473" t="n">
         <v>654.7</v>
@@ -24402,7 +24424,7 @@
         <v>1641</v>
       </c>
       <c r="K474" t="n">
-        <v>-28.26086956521739</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L474" t="n">
         <v>653.7</v>
@@ -24453,7 +24475,7 @@
         <v>1647</v>
       </c>
       <c r="K475" t="n">
-        <v>-13.33333333333333</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L475" t="n">
         <v>653.4</v>
@@ -24504,7 +24526,7 @@
         <v>1659</v>
       </c>
       <c r="K476" t="n">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="L476" t="n">
         <v>651.8</v>
@@ -24555,7 +24577,7 @@
         <v>1665</v>
       </c>
       <c r="K477" t="n">
-        <v>-25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L477" t="n">
         <v>651.4</v>
@@ -24606,7 +24628,7 @@
         <v>1672</v>
       </c>
       <c r="K478" t="n">
-        <v>-14.8936170212766</v>
+        <v>12</v>
       </c>
       <c r="L478" t="n">
         <v>651.8</v>
@@ -24657,7 +24679,7 @@
         <v>1673</v>
       </c>
       <c r="K479" t="n">
-        <v>-17.02127659574468</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L479" t="n">
         <v>652.3</v>
@@ -24708,7 +24730,7 @@
         <v>1675</v>
       </c>
       <c r="K480" t="n">
-        <v>-17.02127659574468</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>652.3</v>
@@ -24759,7 +24781,7 @@
         <v>1683</v>
       </c>
       <c r="K481" t="n">
-        <v>-23.52941176470588</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L481" t="n">
         <v>651.5</v>
@@ -24810,7 +24832,7 @@
         <v>1687</v>
       </c>
       <c r="K482" t="n">
-        <v>-18.75</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L482" t="n">
         <v>649.7</v>
@@ -24861,7 +24883,7 @@
         <v>1690</v>
       </c>
       <c r="K483" t="n">
-        <v>-28.08988764044944</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L483" t="n">
         <v>649</v>
@@ -24912,7 +24934,7 @@
         <v>1693</v>
       </c>
       <c r="K484" t="n">
-        <v>-14.63414634146341</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L484" t="n">
         <v>648.8</v>
@@ -24963,7 +24985,7 @@
         <v>1696</v>
       </c>
       <c r="K485" t="n">
-        <v>-9.523809523809524</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L485" t="n">
         <v>648.3</v>
@@ -25014,7 +25036,7 @@
         <v>1696</v>
       </c>
       <c r="K486" t="n">
-        <v>-10.8433734939759</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L486" t="n">
         <v>649</v>
@@ -25065,7 +25087,7 @@
         <v>1698</v>
       </c>
       <c r="K487" t="n">
-        <v>-1.265822784810127</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L487" t="n">
         <v>649.3</v>
@@ -25116,7 +25138,7 @@
         <v>1699</v>
       </c>
       <c r="K488" t="n">
-        <v>1.265822784810127</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L488" t="n">
         <v>649</v>
@@ -25167,7 +25189,7 @@
         <v>1702</v>
       </c>
       <c r="K489" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L489" t="n">
         <v>648.5</v>
@@ -25218,7 +25240,7 @@
         <v>1711</v>
       </c>
       <c r="K490" t="n">
-        <v>-13.95348837209302</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L490" t="n">
         <v>647.3</v>
@@ -25269,7 +25291,7 @@
         <v>1717</v>
       </c>
       <c r="K491" t="n">
-        <v>-6.521739130434782</v>
+        <v>20</v>
       </c>
       <c r="L491" t="n">
         <v>647.5</v>
@@ -25320,7 +25342,7 @@
         <v>1718</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.94252873563219</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L492" t="n">
         <v>648</v>
@@ -25371,7 +25393,7 @@
         <v>1723</v>
       </c>
       <c r="K493" t="n">
-        <v>-11.9047619047619</v>
+        <v>-20</v>
       </c>
       <c r="L493" t="n">
         <v>647.7</v>
@@ -25422,7 +25444,7 @@
         <v>1726</v>
       </c>
       <c r="K494" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L494" t="n">
         <v>647.4</v>
@@ -25473,7 +25495,7 @@
         <v>1729</v>
       </c>
       <c r="K495" t="n">
-        <v>-17.07317073170732</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L495" t="n">
         <v>646.5</v>
@@ -25524,7 +25546,7 @@
         <v>1732</v>
       </c>
       <c r="K496" t="n">
-        <v>-6.849315068493151</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L496" t="n">
         <v>645.3</v>
@@ -25575,7 +25597,7 @@
         <v>1737</v>
       </c>
       <c r="K497" t="n">
-        <v>-8.333333333333332</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L497" t="n">
         <v>644.4</v>
@@ -25626,7 +25648,7 @@
         <v>1740</v>
       </c>
       <c r="K498" t="n">
-        <v>-23.52941176470588</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L498" t="n">
         <v>643.1</v>
@@ -25677,7 +25699,7 @@
         <v>1746</v>
       </c>
       <c r="K499" t="n">
-        <v>-28.76712328767123</v>
+        <v>-20</v>
       </c>
       <c r="L499" t="n">
         <v>641.5</v>
@@ -25728,7 +25750,7 @@
         <v>1747</v>
       </c>
       <c r="K500" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="L500" t="n">
         <v>640.9</v>
@@ -25779,7 +25801,7 @@
         <v>1753</v>
       </c>
       <c r="K501" t="n">
-        <v>-5.714285714285714</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L501" t="n">
         <v>640.3</v>
@@ -25830,7 +25852,7 @@
         <v>1756</v>
       </c>
       <c r="K502" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L502" t="n">
         <v>639.5</v>
@@ -25881,7 +25903,7 @@
         <v>1758</v>
       </c>
       <c r="K503" t="n">
-        <v>-5.88235294117647</v>
+        <v>-12.5</v>
       </c>
       <c r="L503" t="n">
         <v>639.4</v>
@@ -25932,7 +25954,7 @@
         <v>1758</v>
       </c>
       <c r="K504" t="n">
-        <v>-10.76923076923077</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L504" t="n">
         <v>639</v>
@@ -25983,7 +26005,7 @@
         <v>1759</v>
       </c>
       <c r="K505" t="n">
-        <v>-17.46031746031746</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L505" t="n">
         <v>638.8</v>
@@ -26034,7 +26056,7 @@
         <v>1760</v>
       </c>
       <c r="K506" t="n">
-        <v>-15.625</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L506" t="n">
         <v>639</v>
@@ -26085,7 +26107,7 @@
         <v>1760</v>
       </c>
       <c r="K507" t="n">
-        <v>-19.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>638.7</v>
@@ -26136,7 +26158,7 @@
         <v>1760</v>
       </c>
       <c r="K508" t="n">
-        <v>-21.31147540983606</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L508" t="n">
         <v>638.7</v>
@@ -26187,7 +26209,7 @@
         <v>1760</v>
       </c>
       <c r="K509" t="n">
-        <v>-17.24137931034483</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L509" t="n">
         <v>639.3</v>
@@ -26238,7 +26260,7 @@
         <v>1760</v>
       </c>
       <c r="K510" t="n">
-        <v>-2.040816326530612</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L510" t="n">
         <v>639.8</v>
@@ -26289,7 +26311,7 @@
         <v>1760</v>
       </c>
       <c r="K511" t="n">
-        <v>-16.27906976744186</v>
+        <v>50</v>
       </c>
       <c r="L511" t="n">
         <v>639.7</v>
@@ -26340,7 +26362,7 @@
         <v>1761</v>
       </c>
       <c r="K512" t="n">
-        <v>-16.27906976744186</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L512" t="n">
         <v>639.8</v>
@@ -26391,7 +26413,7 @@
         <v>1766</v>
       </c>
       <c r="K513" t="n">
-        <v>-16.27906976744186</v>
+        <v>-75</v>
       </c>
       <c r="L513" t="n">
         <v>639.2</v>
@@ -26442,7 +26464,7 @@
         <v>1770</v>
       </c>
       <c r="K514" t="n">
-        <v>-13.63636363636363</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L514" t="n">
         <v>639</v>
@@ -26493,7 +26515,7 @@
         <v>1772</v>
       </c>
       <c r="K515" t="n">
-        <v>-11.62790697674419</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>638.7</v>
@@ -26544,7 +26566,7 @@
         <v>1781</v>
       </c>
       <c r="K516" t="n">
-        <v>14.28571428571428</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L516" t="n">
         <v>639.2</v>
@@ -26595,7 +26617,7 @@
         <v>1791</v>
       </c>
       <c r="K517" t="n">
-        <v>-14.81481481481481</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L517" t="n">
         <v>638.7</v>
@@ -26646,7 +26668,7 @@
         <v>1792</v>
       </c>
       <c r="K518" t="n">
-        <v>-11.53846153846154</v>
+        <v>-18.75</v>
       </c>
       <c r="L518" t="n">
         <v>638.1</v>
@@ -26697,7 +26719,7 @@
         <v>1794</v>
       </c>
       <c r="K519" t="n">
-        <v>4.166666666666666</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L519" t="n">
         <v>637.7</v>
@@ -26748,7 +26770,7 @@
         <v>1798</v>
       </c>
       <c r="K520" t="n">
-        <v>9.803921568627452</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>637.7</v>
@@ -26799,7 +26821,7 @@
         <v>1803</v>
       </c>
       <c r="K521" t="n">
-        <v>-12</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L521" t="n">
         <v>637.2</v>
@@ -26850,7 +26872,7 @@
         <v>1811</v>
       </c>
       <c r="K522" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L522" t="n">
         <v>637.6</v>
@@ -26901,7 +26923,7 @@
         <v>1815</v>
       </c>
       <c r="K523" t="n">
-        <v>-1.754385964912281</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L523" t="n">
         <v>638.1</v>
@@ -26952,7 +26974,7 @@
         <v>1816</v>
       </c>
       <c r="K524" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L524" t="n">
         <v>638.3</v>
@@ -27003,7 +27025,7 @@
         <v>1820</v>
       </c>
       <c r="K525" t="n">
-        <v>8.196721311475409</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L525" t="n">
         <v>639.1</v>
@@ -27054,7 +27076,7 @@
         <v>1821</v>
       </c>
       <c r="K526" t="n">
-        <v>8.196721311475409</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L526" t="n">
         <v>639.1</v>
@@ -27105,7 +27127,7 @@
         <v>1821</v>
       </c>
       <c r="K527" t="n">
-        <v>8.196721311475409</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L527" t="n">
         <v>640.1</v>
@@ -27156,7 +27178,7 @@
         <v>1821</v>
       </c>
       <c r="K528" t="n">
-        <v>8.196721311475409</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>641.2</v>
@@ -27207,7 +27229,7 @@
         <v>1823</v>
       </c>
       <c r="K529" t="n">
-        <v>11.11111111111111</v>
+        <v>28</v>
       </c>
       <c r="L529" t="n">
         <v>642.3</v>
@@ -27258,7 +27280,7 @@
         <v>1823</v>
       </c>
       <c r="K530" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L530" t="n">
         <v>643</v>
@@ -27309,7 +27331,7 @@
         <v>1825</v>
       </c>
       <c r="K531" t="n">
-        <v>13.84615384615385</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L531" t="n">
         <v>644.4</v>
@@ -27360,7 +27382,7 @@
         <v>1825</v>
       </c>
       <c r="K532" t="n">
-        <v>15.625</v>
+        <v>100</v>
       </c>
       <c r="L532" t="n">
         <v>645</v>
@@ -27411,7 +27433,7 @@
         <v>1825</v>
       </c>
       <c r="K533" t="n">
-        <v>25.42372881355932</v>
+        <v>100</v>
       </c>
       <c r="L533" t="n">
         <v>646</v>
@@ -27462,7 +27484,7 @@
         <v>1826</v>
       </c>
       <c r="K534" t="n">
-        <v>21.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L534" t="n">
         <v>647</v>
@@ -27513,7 +27535,7 @@
         <v>1826</v>
       </c>
       <c r="K535" t="n">
-        <v>25.92592592592592</v>
+        <v>100</v>
       </c>
       <c r="L535" t="n">
         <v>647.6</v>
@@ -27564,7 +27586,7 @@
         <v>1826</v>
       </c>
       <c r="K536" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L536" t="n">
         <v>648.1</v>
@@ -27615,7 +27637,7 @@
         <v>1826</v>
       </c>
       <c r="K537" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L537" t="n">
         <v>648.6</v>
@@ -27666,7 +27688,7 @@
         <v>1826</v>
       </c>
       <c r="K538" t="n">
-        <v>47.05882352941176</v>
+        <v>100</v>
       </c>
       <c r="L538" t="n">
         <v>649.1</v>
@@ -27717,7 +27739,7 @@
         <v>1828</v>
       </c>
       <c r="K539" t="n">
-        <v>47.05882352941176</v>
+        <v>100</v>
       </c>
       <c r="L539" t="n">
         <v>649.6</v>
@@ -27768,7 +27790,7 @@
         <v>1834</v>
       </c>
       <c r="K540" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L540" t="n">
         <v>649.5</v>
@@ -27819,7 +27841,7 @@
         <v>1843</v>
       </c>
       <c r="K541" t="n">
-        <v>5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L541" t="n">
         <v>648.3</v>
@@ -27870,7 +27892,7 @@
         <v>1845</v>
       </c>
       <c r="K542" t="n">
-        <v>-11.76470588235294</v>
+        <v>-50</v>
       </c>
       <c r="L542" t="n">
         <v>647.3</v>
@@ -27921,7 +27943,7 @@
         <v>1846</v>
       </c>
       <c r="K543" t="n">
-        <v>3.225806451612903</v>
+        <v>-50</v>
       </c>
       <c r="L543" t="n">
         <v>646.4</v>
@@ -27972,7 +27994,7 @@
         <v>1855</v>
       </c>
       <c r="K544" t="n">
-        <v>23.07692307692308</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L544" t="n">
         <v>646.3</v>
@@ -28023,7 +28045,7 @@
         <v>1863</v>
       </c>
       <c r="K545" t="n">
-        <v>-6.976744186046512</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L545" t="n">
         <v>645.4</v>
@@ -28074,7 +28096,7 @@
         <v>1867</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L546" t="n">
         <v>644.9</v>
@@ -28125,7 +28147,7 @@
         <v>1874</v>
       </c>
       <c r="K547" t="n">
-        <v>-13.20754716981132</v>
+        <v>-25</v>
       </c>
       <c r="L547" t="n">
         <v>643.7</v>
@@ -28176,7 +28198,7 @@
         <v>1874</v>
       </c>
       <c r="K548" t="n">
-        <v>-13.20754716981132</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L548" t="n">
         <v>642.5</v>
@@ -28227,7 +28249,7 @@
         <v>1875</v>
       </c>
       <c r="K549" t="n">
-        <v>-19.23076923076923</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L549" t="n">
         <v>641</v>
@@ -28278,7 +28300,7 @@
         <v>1875</v>
       </c>
       <c r="K550" t="n">
-        <v>-19.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>640.1</v>
@@ -28329,7 +28351,7 @@
         <v>1877</v>
       </c>
       <c r="K551" t="n">
-        <v>-19.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L551" t="n">
         <v>640.3</v>
@@ -28380,7 +28402,7 @@
         <v>1878</v>
       </c>
       <c r="K552" t="n">
-        <v>-16.9811320754717</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>640.4</v>
@@ -28431,7 +28453,7 @@
         <v>1878</v>
       </c>
       <c r="K553" t="n">
-        <v>-16.9811320754717</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L553" t="n">
         <v>640.4</v>
@@ -28482,7 +28504,7 @@
         <v>1878</v>
       </c>
       <c r="K554" t="n">
-        <v>-19.23076923076923</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L554" t="n">
         <v>639.5</v>
@@ -28533,7 +28555,7 @@
         <v>1879</v>
       </c>
       <c r="K555" t="n">
-        <v>-20.75471698113208</v>
+        <v>-50</v>
       </c>
       <c r="L555" t="n">
         <v>639.3</v>
@@ -28584,7 +28606,7 @@
         <v>1880</v>
       </c>
       <c r="K556" t="n">
-        <v>-18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L556" t="n">
         <v>638.8</v>
@@ -28635,7 +28657,7 @@
         <v>1880</v>
       </c>
       <c r="K557" t="n">
-        <v>-18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L557" t="n">
         <v>639</v>
@@ -28686,7 +28708,7 @@
         <v>1881</v>
       </c>
       <c r="K558" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L558" t="n">
         <v>639.1</v>
@@ -28737,7 +28759,7 @@
         <v>1887</v>
       </c>
       <c r="K559" t="n">
-        <v>-11.86440677966102</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L559" t="n">
         <v>639.9</v>
@@ -28788,7 +28810,7 @@
         <v>1893</v>
       </c>
       <c r="K560" t="n">
-        <v>-11.86440677966102</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>640.1</v>
@@ -28839,7 +28861,7 @@
         <v>1900</v>
       </c>
       <c r="K561" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L561" t="n">
         <v>640.8</v>
@@ -28890,7 +28912,7 @@
         <v>1908</v>
       </c>
       <c r="K562" t="n">
-        <v>-1.587301587301587</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L562" t="n">
         <v>640.6</v>
@@ -28941,7 +28963,7 @@
         <v>1914</v>
       </c>
       <c r="K563" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L563" t="n">
         <v>641</v>
@@ -28992,7 +29014,7 @@
         <v>1914</v>
       </c>
       <c r="K564" t="n">
-        <v>-8.474576271186439</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L564" t="n">
         <v>641.4</v>
@@ -29043,7 +29065,7 @@
         <v>1918</v>
       </c>
       <c r="K565" t="n">
-        <v>-1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>641.5</v>
@@ -29094,7 +29116,7 @@
         <v>1922</v>
       </c>
       <c r="K566" t="n">
-        <v>-1.818181818181818</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L566" t="n">
         <v>641.9</v>
@@ -29145,7 +29167,7 @@
         <v>1925</v>
       </c>
       <c r="K567" t="n">
-        <v>5.88235294117647</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L567" t="n">
         <v>642</v>
@@ -29196,7 +29218,7 @@
         <v>1926</v>
       </c>
       <c r="K568" t="n">
-        <v>3.846153846153846</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L568" t="n">
         <v>642.1</v>
@@ -29247,7 +29269,7 @@
         <v>1933</v>
       </c>
       <c r="K569" t="n">
-        <v>-6.896551724137931</v>
+        <v>-15</v>
       </c>
       <c r="L569" t="n">
         <v>640.9</v>
@@ -29298,7 +29320,7 @@
         <v>1934</v>
       </c>
       <c r="K570" t="n">
-        <v>-8.474576271186439</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L570" t="n">
         <v>640.2</v>
@@ -29349,7 +29371,7 @@
         <v>1935</v>
       </c>
       <c r="K571" t="n">
-        <v>-13.79310344827586</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L571" t="n">
         <v>638.7</v>
@@ -29400,7 +29422,7 @@
         <v>1935</v>
       </c>
       <c r="K572" t="n">
-        <v>-15.78947368421053</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L572" t="n">
         <v>638</v>
@@ -29451,7 +29473,7 @@
         <v>1943</v>
       </c>
       <c r="K573" t="n">
-        <v>-1.538461538461539</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L573" t="n">
         <v>637.5</v>
@@ -29502,7 +29524,7 @@
         <v>1951</v>
       </c>
       <c r="K574" t="n">
-        <v>-12.32876712328767</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L574" t="n">
         <v>636.2</v>
@@ -29553,7 +29575,7 @@
         <v>1951</v>
       </c>
       <c r="K575" t="n">
-        <v>-11.11111111111111</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L575" t="n">
         <v>635.3</v>
@@ -29604,7 +29626,7 @@
         <v>1952</v>
       </c>
       <c r="K576" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L576" t="n">
         <v>634.1</v>
@@ -29655,7 +29677,7 @@
         <v>1954</v>
       </c>
       <c r="K577" t="n">
-        <v>-13.51351351351351</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L577" t="n">
         <v>633</v>
@@ -29706,7 +29728,7 @@
         <v>1954</v>
       </c>
       <c r="K578" t="n">
-        <v>-12.32876712328767</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L578" t="n">
         <v>632</v>
@@ -29757,7 +29779,7 @@
         <v>1954</v>
       </c>
       <c r="K579" t="n">
-        <v>-22.38805970149254</v>
+        <v>-10</v>
       </c>
       <c r="L579" t="n">
         <v>631.7</v>
@@ -29808,7 +29830,7 @@
         <v>1955</v>
       </c>
       <c r="K580" t="n">
-        <v>-12.90322580645161</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>631.6</v>
@@ -29859,7 +29881,7 @@
         <v>1963</v>
       </c>
       <c r="K581" t="n">
-        <v>-11.11111111111111</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L581" t="n">
         <v>632.4</v>
@@ -29910,7 +29932,7 @@
         <v>1981</v>
       </c>
       <c r="K582" t="n">
-        <v>-23.28767123287671</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L582" t="n">
         <v>631.4</v>
@@ -29961,7 +29983,7 @@
         <v>1995</v>
       </c>
       <c r="K583" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L583" t="n">
         <v>631</v>
@@ -30012,7 +30034,7 @@
         <v>1996</v>
       </c>
       <c r="K584" t="n">
-        <v>-12.19512195121951</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L584" t="n">
         <v>631.3</v>
@@ -30063,7 +30085,7 @@
         <v>1997</v>
       </c>
       <c r="K585" t="n">
-        <v>-8.860759493670885</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L585" t="n">
         <v>631.5</v>
@@ -30114,7 +30136,7 @@
         <v>1997</v>
       </c>
       <c r="K586" t="n">
-        <v>-14.66666666666667</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L586" t="n">
         <v>631.6</v>
@@ -30165,7 +30187,7 @@
         <v>2010</v>
       </c>
       <c r="K587" t="n">
-        <v>-24.70588235294118</v>
+        <v>-17.85714285714286</v>
       </c>
       <c r="L587" t="n">
         <v>630.6</v>
@@ -30216,7 +30238,7 @@
         <v>2015</v>
       </c>
       <c r="K588" t="n">
-        <v>-16.85393258426966</v>
+        <v>-8.196721311475409</v>
       </c>
       <c r="L588" t="n">
         <v>630.1</v>
@@ -30267,7 +30289,7 @@
         <v>2015</v>
       </c>
       <c r="K589" t="n">
-        <v>-9.75609756097561</v>
+        <v>-10</v>
       </c>
       <c r="L589" t="n">
         <v>629.6</v>
@@ -30318,7 +30340,7 @@
         <v>2015</v>
       </c>
       <c r="K590" t="n">
-        <v>-8.641975308641975</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L590" t="n">
         <v>629</v>
@@ -30369,7 +30391,7 @@
         <v>2015</v>
       </c>
       <c r="K591" t="n">
-        <v>-7.5</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L591" t="n">
         <v>627.6</v>
@@ -30420,7 +30442,7 @@
         <v>2015</v>
       </c>
       <c r="K592" t="n">
-        <v>-7.5</v>
+        <v>-50</v>
       </c>
       <c r="L592" t="n">
         <v>628</v>
@@ -30471,7 +30493,7 @@
         <v>2020</v>
       </c>
       <c r="K593" t="n">
-        <v>-11.68831168831169</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L593" t="n">
         <v>627.5</v>
@@ -30522,7 +30544,7 @@
         <v>2023</v>
       </c>
       <c r="K594" t="n">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>627.4</v>
@@ -30573,7 +30595,7 @@
         <v>2028</v>
       </c>
       <c r="K595" t="n">
-        <v>-3.896103896103896</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L595" t="n">
         <v>626.9</v>
@@ -30624,7 +30646,7 @@
         <v>2037</v>
       </c>
       <c r="K596" t="n">
-        <v>-15.29411764705882</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L596" t="n">
         <v>625.5</v>
@@ -30675,7 +30697,7 @@
         <v>2037</v>
       </c>
       <c r="K597" t="n">
-        <v>-13.25301204819277</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L597" t="n">
         <v>625.4</v>
@@ -30726,7 +30748,7 @@
         <v>2045</v>
       </c>
       <c r="K598" t="n">
-        <v>-3.296703296703297</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L598" t="n">
         <v>625.6</v>
@@ -30777,7 +30799,7 @@
         <v>2045</v>
       </c>
       <c r="K599" t="n">
-        <v>-3.296703296703297</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L599" t="n">
         <v>625.8</v>
@@ -30828,7 +30850,7 @@
         <v>2045</v>
       </c>
       <c r="K600" t="n">
-        <v>-4.444444444444445</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L600" t="n">
         <v>626</v>
@@ -30879,7 +30901,7 @@
         <v>2055</v>
       </c>
       <c r="K601" t="n">
-        <v>-23.91304347826087</v>
+        <v>-20</v>
       </c>
       <c r="L601" t="n">
         <v>625.2</v>
@@ -30930,7 +30952,7 @@
         <v>2068</v>
       </c>
       <c r="K602" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L602" t="n">
         <v>625.7</v>
@@ -30981,7 +31003,7 @@
         <v>2070</v>
       </c>
       <c r="K603" t="n">
-        <v>-9.333333333333334</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L603" t="n">
         <v>625.5</v>
@@ -31032,7 +31054,7 @@
         <v>2070</v>
       </c>
       <c r="K604" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>625</v>
@@ -31083,7 +31105,7 @@
         <v>2076</v>
       </c>
       <c r="K605" t="n">
-        <v>1.265822784810127</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L605" t="n">
         <v>625.6</v>
@@ -31134,7 +31156,7 @@
         <v>2079</v>
       </c>
       <c r="K606" t="n">
-        <v>4.878048780487805</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L606" t="n">
         <v>627.4</v>
@@ -31185,7 +31207,7 @@
         <v>2079</v>
       </c>
       <c r="K607" t="n">
-        <v>24.63768115942029</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L607" t="n">
         <v>629.2</v>
@@ -31236,7 +31258,7 @@
         <v>2081</v>
       </c>
       <c r="K608" t="n">
-        <v>21.21212121212121</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L608" t="n">
         <v>630.4</v>
@@ -31287,7 +31309,7 @@
         <v>2082</v>
       </c>
       <c r="K609" t="n">
-        <v>22.38805970149254</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L609" t="n">
         <v>631.7</v>
@@ -31338,7 +31360,7 @@
         <v>2082</v>
       </c>
       <c r="K610" t="n">
-        <v>22.38805970149254</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="L610" t="n">
         <v>633</v>
@@ -31389,7 +31411,7 @@
         <v>2085</v>
       </c>
       <c r="K611" t="n">
-        <v>17.14285714285714</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L611" t="n">
         <v>635</v>
@@ -31440,7 +31462,7 @@
         <v>2090</v>
       </c>
       <c r="K612" t="n">
-        <v>22.66666666666666</v>
+        <v>70</v>
       </c>
       <c r="L612" t="n">
         <v>636.2</v>
@@ -31491,7 +31513,7 @@
         <v>2091</v>
       </c>
       <c r="K613" t="n">
-        <v>18.30985915492958</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L613" t="n">
         <v>637.7</v>
@@ -31542,7 +31564,7 @@
         <v>2092</v>
       </c>
       <c r="K614" t="n">
-        <v>15.94202898550724</v>
+        <v>62.5</v>
       </c>
       <c r="L614" t="n">
         <v>639.3</v>
@@ -31593,7 +31615,7 @@
         <v>2092</v>
       </c>
       <c r="K615" t="n">
-        <v>25</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L615" t="n">
         <v>640.3</v>
@@ -31644,7 +31666,7 @@
         <v>2092</v>
       </c>
       <c r="K616" t="n">
-        <v>45.45454545454545</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L616" t="n">
         <v>641</v>
@@ -31695,7 +31717,7 @@
         <v>2094</v>
       </c>
       <c r="K617" t="n">
-        <v>40.35087719298245</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L617" t="n">
         <v>641.5</v>
@@ -31746,7 +31768,7 @@
         <v>2101</v>
       </c>
       <c r="K618" t="n">
-        <v>14.28571428571428</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L618" t="n">
         <v>641.1</v>
@@ -31797,7 +31819,7 @@
         <v>2101</v>
       </c>
       <c r="K619" t="n">
-        <v>14.28571428571428</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L619" t="n">
         <v>640.6</v>
@@ -31848,7 +31870,7 @@
         <v>2102</v>
       </c>
       <c r="K620" t="n">
-        <v>12.28070175438596</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L620" t="n">
         <v>640</v>
@@ -31899,7 +31921,7 @@
         <v>2103</v>
       </c>
       <c r="K621" t="n">
-        <v>33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L621" t="n">
         <v>639.6</v>
@@ -31950,7 +31972,7 @@
         <v>2105</v>
       </c>
       <c r="K622" t="n">
-        <v>13.51351351351351</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L622" t="n">
         <v>638.9</v>
@@ -32001,7 +32023,7 @@
         <v>2106</v>
       </c>
       <c r="K623" t="n">
-        <v>16.66666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L623" t="n">
         <v>638</v>
@@ -32052,7 +32074,7 @@
         <v>2107</v>
       </c>
       <c r="K624" t="n">
-        <v>18.91891891891892</v>
+        <v>-60</v>
       </c>
       <c r="L624" t="n">
         <v>637.1</v>
@@ -32103,7 +32125,7 @@
         <v>2109</v>
       </c>
       <c r="K625" t="n">
-        <v>-3.03030303030303</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L625" t="n">
         <v>636</v>
@@ -32154,7 +32176,7 @@
         <v>2111</v>
       </c>
       <c r="K626" t="n">
-        <v>-6.25</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L626" t="n">
         <v>635.1</v>
@@ -32205,7 +32227,7 @@
         <v>2111</v>
       </c>
       <c r="K627" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>634.4</v>
@@ -32256,7 +32278,7 @@
         <v>2111</v>
       </c>
       <c r="K628" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>634.4</v>
@@ -32307,7 +32329,7 @@
         <v>2111</v>
       </c>
       <c r="K629" t="n">
-        <v>-17.24137931034483</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L629" t="n">
         <v>634.4</v>
@@ -32358,7 +32380,7 @@
         <v>2117</v>
       </c>
       <c r="K630" t="n">
-        <v>-31.42857142857143</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L630" t="n">
         <v>633.9</v>
@@ -32409,7 +32431,7 @@
         <v>2119</v>
       </c>
       <c r="K631" t="n">
-        <v>-29.41176470588236</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L631" t="n">
         <v>633.3</v>
@@ -32460,7 +32482,7 @@
         <v>2119</v>
       </c>
       <c r="K632" t="n">
-        <v>-51.72413793103448</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L632" t="n">
         <v>632.5</v>
@@ -32511,7 +32533,7 @@
         <v>2124</v>
       </c>
       <c r="K633" t="n">
-        <v>-33.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L633" t="n">
         <v>632.3</v>
@@ -32562,7 +32584,7 @@
         <v>2127</v>
       </c>
       <c r="K634" t="n">
-        <v>-42.85714285714285</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L634" t="n">
         <v>631.7</v>
@@ -32613,7 +32635,7 @@
         <v>2129</v>
       </c>
       <c r="K635" t="n">
-        <v>-35.13513513513514</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L635" t="n">
         <v>631.5</v>
@@ -32664,7 +32686,7 @@
         <v>2131</v>
       </c>
       <c r="K636" t="n">
-        <v>-38.46153846153847</v>
+        <v>-30</v>
       </c>
       <c r="L636" t="n">
         <v>630.9</v>
@@ -32715,7 +32737,7 @@
         <v>2136</v>
       </c>
       <c r="K637" t="n">
-        <v>-19.04761904761905</v>
+        <v>-4</v>
       </c>
       <c r="L637" t="n">
         <v>630.8</v>
@@ -32766,7 +32788,7 @@
         <v>2141</v>
       </c>
       <c r="K638" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="L638" t="n">
         <v>630.2</v>
@@ -32817,7 +32839,7 @@
         <v>2146</v>
       </c>
       <c r="K639" t="n">
-        <v>-2.222222222222222</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L639" t="n">
         <v>630.1</v>
@@ -32868,7 +32890,7 @@
         <v>2152</v>
       </c>
       <c r="K640" t="n">
-        <v>-12</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L640" t="n">
         <v>630</v>
@@ -32919,7 +32941,7 @@
         <v>2152</v>
       </c>
       <c r="K641" t="n">
-        <v>-10.20408163265306</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L641" t="n">
         <v>630.1</v>
@@ -32970,7 +32992,7 @@
         <v>2153</v>
       </c>
       <c r="K642" t="n">
-        <v>-16.66666666666666</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L642" t="n">
         <v>630.1</v>
@@ -33021,7 +33043,7 @@
         <v>2158</v>
       </c>
       <c r="K643" t="n">
-        <v>-3.846153846153846</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L643" t="n">
         <v>630.1</v>
@@ -33072,7 +33094,7 @@
         <v>2165</v>
       </c>
       <c r="K644" t="n">
-        <v>-17.24137931034483</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L644" t="n">
         <v>629.7</v>
@@ -33123,7 +33145,7 @@
         <v>2167</v>
       </c>
       <c r="K645" t="n">
-        <v>-17.24137931034483</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L645" t="n">
         <v>628.9</v>
@@ -33174,7 +33196,7 @@
         <v>2168</v>
       </c>
       <c r="K646" t="n">
-        <v>-22.80701754385965</v>
+        <v>-37.5</v>
       </c>
       <c r="L646" t="n">
         <v>628.2</v>
@@ -33225,7 +33247,7 @@
         <v>2175</v>
       </c>
       <c r="K647" t="n">
-        <v>-9.375</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>627.7</v>
@@ -33276,7 +33298,7 @@
         <v>2180</v>
       </c>
       <c r="K648" t="n">
-        <v>-15.94202898550724</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L648" t="n">
         <v>627.2</v>
@@ -33327,7 +33349,7 @@
         <v>2181</v>
       </c>
       <c r="K649" t="n">
-        <v>-17.14285714285714</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L649" t="n">
         <v>626.1</v>
@@ -33378,7 +33400,7 @@
         <v>2184</v>
       </c>
       <c r="K650" t="n">
-        <v>-13.43283582089552</v>
+        <v>-25</v>
       </c>
       <c r="L650" t="n">
         <v>625.3</v>
@@ -33429,7 +33451,7 @@
         <v>2184</v>
       </c>
       <c r="K651" t="n">
-        <v>-10.76923076923077</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L651" t="n">
         <v>624.5</v>
@@ -33480,7 +33502,7 @@
         <v>2186</v>
       </c>
       <c r="K652" t="n">
-        <v>-7.462686567164178</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L652" t="n">
         <v>624</v>
@@ -33531,7 +33553,7 @@
         <v>2186</v>
       </c>
       <c r="K653" t="n">
-        <v>-16.12903225806452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L653" t="n">
         <v>623</v>
@@ -33582,7 +33604,7 @@
         <v>2187</v>
       </c>
       <c r="K654" t="n">
-        <v>-13.33333333333333</v>
+        <v>-10</v>
       </c>
       <c r="L654" t="n">
         <v>622.6</v>
@@ -33633,7 +33655,7 @@
         <v>2187</v>
       </c>
       <c r="K655" t="n">
-        <v>-17.24137931034483</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L655" t="n">
         <v>622.4</v>

--- a/BackTest/2019-10-16 BackTest GXC.xlsx
+++ b/BackTest/2019-10-16 BackTest GXC.xlsx
@@ -6191,13 +6191,17 @@
         <v>644.4</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>643</v>
+      </c>
+      <c r="K166" t="n">
+        <v>643</v>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
@@ -6232,8 +6236,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>643</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>643</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6318,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>643</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>643</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6400,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>643</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6441,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>643</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>643</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>643</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6564,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>643</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6605,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>643</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6646,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>643</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6687,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>643</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>643</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>643</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6810,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>643</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6851,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>643</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6892,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>643</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +6933,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>643</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +6974,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>643</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7015,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>643</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7056,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>643</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7097,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>643</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7138,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>643</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7179,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>643</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,10 +7220,16 @@
         <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>643</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M191" t="n">
-        <v>1</v>
+        <v>1.046321928460342</v>
       </c>
     </row>
     <row r="192">
@@ -7104,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -8011,14 +8165,20 @@
         <v>652.65</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>653</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +8206,20 @@
         <v>653.2</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>669</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8254,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8293,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8332,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8371,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8410,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8449,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8488,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +8527,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +8566,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8605,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8644,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8683,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8722,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +8761,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +8800,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +8839,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8641,14 +8871,20 @@
         <v>655.1333333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>647</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8676,14 +8912,20 @@
         <v>655.0666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>644</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +8953,20 @@
         <v>654.8333333333334</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>651</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9001,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9040,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9079,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9118,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9157,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9196,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9235,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9274,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9313,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9352,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9391,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9430,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9469,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9508,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9547,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +9586,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9625,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9664,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9703,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9742,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9781,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +9820,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +9859,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +9898,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +9937,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9976,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10015,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10054,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10093,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10132,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10171,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10210,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10249,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10288,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10327,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10366,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10405,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10444,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10483,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +10522,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +10561,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10600,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10639,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +10678,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10717,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +10756,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +10795,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +10834,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +10873,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10912,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +10951,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +10990,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11029,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11068,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +11107,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10678,7 +11146,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11185,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +11224,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11263,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11302,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11341,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +11380,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11419,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11458,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10993,7 +11497,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +11536,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11063,7 +11575,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +11614,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11133,7 +11653,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +11692,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11203,7 +11731,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +11770,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11273,7 +11809,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11308,7 +11848,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +11887,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11926,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +11965,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +12004,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11483,7 +12043,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11518,7 +12082,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +12121,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11588,7 +12160,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +12199,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11658,7 +12238,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11693,7 +12277,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11728,7 +12316,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11763,7 +12355,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +12394,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11833,7 +12433,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12472,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +12511,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +12550,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +12589,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12008,7 +12628,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +12667,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +12706,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +12745,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12148,7 +12784,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12183,7 +12823,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +12862,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +12901,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12288,7 +12940,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +12979,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12358,7 +13018,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +13057,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12428,7 +13096,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12463,7 +13135,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +13174,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13213,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12568,7 +13252,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12603,7 +13291,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12638,7 +13330,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12673,7 +13369,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12708,7 +13408,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12743,7 +13447,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12778,7 +13486,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12813,7 +13525,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12848,7 +13564,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12883,7 +13603,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12918,7 +13642,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +13681,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12988,7 +13720,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13023,7 +13759,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13058,7 +13798,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +13837,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13128,7 +13876,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13163,7 +13915,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13198,7 +13954,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13233,7 +13993,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13268,7 +14032,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13303,7 +14071,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13338,7 +14110,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13373,7 +14149,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +14188,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13443,7 +14227,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13478,7 +14266,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13513,7 +14305,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13548,7 +14344,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13583,7 +14383,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13618,7 +14422,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13653,7 +14461,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14500,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13723,7 +14539,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13758,7 +14578,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13793,7 +14617,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13828,7 +14656,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +14695,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13898,7 +14734,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13933,7 +14773,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -13968,7 +14812,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14003,7 +14851,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14038,7 +14890,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14073,7 +14929,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14108,7 +14968,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14143,7 +15007,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +15046,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14213,7 +15085,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +15124,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14283,7 +15163,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14318,7 +15202,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14353,7 +15241,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +15280,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14423,7 +15319,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14458,7 +15358,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14493,7 +15397,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14528,7 +15436,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +15475,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +15514,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14633,7 +15553,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +15592,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14703,7 +15631,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +15670,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +15709,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +15748,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15787,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +15826,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14913,7 +15865,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +15904,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +15943,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15982,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +16021,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +16060,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +16099,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +16138,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +16177,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +16216,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +16255,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +16294,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +16333,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15368,7 +16372,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +16411,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15438,7 +16450,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15473,7 +16489,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15508,7 +16528,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15543,7 +16567,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15578,7 +16606,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15613,7 +16645,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15648,7 +16684,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15683,7 +16723,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +16762,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15753,7 +16801,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15788,7 +16840,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +16879,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -15858,7 +16918,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -15893,7 +16957,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -15928,7 +16996,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -15959,11 +17031,15 @@
         <v>0</v>
       </c>
       <c r="I445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +17070,15 @@
         <v>0</v>
       </c>
       <c r="I446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16029,11 +17109,15 @@
         <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16064,11 +17148,15 @@
         <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16103,7 +17191,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16134,11 +17226,15 @@
         <v>0</v>
       </c>
       <c r="I450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +17265,15 @@
         <v>0</v>
       </c>
       <c r="I451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16204,11 +17304,15 @@
         <v>0</v>
       </c>
       <c r="I452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16239,11 +17343,15 @@
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +17382,15 @@
         <v>0</v>
       </c>
       <c r="I454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16313,7 +17425,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16348,7 +17464,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16383,7 +17503,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +17542,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16453,7 +17581,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16488,7 +17620,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16523,7 +17659,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +17698,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16593,7 +17737,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16628,7 +17776,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16663,7 +17815,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16698,7 +17854,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16733,7 +17893,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16768,7 +17932,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16803,7 +17971,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -16838,7 +18010,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +18049,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +18088,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -16943,7 +18127,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -16978,7 +18166,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17013,7 +18205,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17048,7 +18244,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17083,7 +18283,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17118,7 +18322,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +18361,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17188,7 +18400,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17223,7 +18439,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17258,7 +18478,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17293,7 +18517,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17328,7 +18556,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17363,7 +18595,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17398,7 +18634,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17433,7 +18673,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17468,7 +18712,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17503,7 +18751,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +18790,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +18829,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17608,7 +18868,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +18907,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17678,7 +18946,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +18985,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17748,7 +19024,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17776,14 +19056,20 @@
         <v>659.85</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>638</v>
+      </c>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +19097,20 @@
         <v>659.3333333333334</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>643</v>
+      </c>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17853,7 +19145,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +19184,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17923,7 +19223,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17958,7 +19262,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17993,7 +19301,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +19340,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18056,14 +19372,20 @@
         <v>655.0166666666667</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>640</v>
+      </c>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18098,7 +19420,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18126,14 +19452,20 @@
         <v>653.9666666666667</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>640</v>
+      </c>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18161,14 +19493,20 @@
         <v>653.35</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>640</v>
+      </c>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18196,14 +19534,20 @@
         <v>652.7333333333333</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>640</v>
+      </c>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18231,14 +19575,20 @@
         <v>652.1</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>640</v>
+      </c>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18266,14 +19616,20 @@
         <v>651.4333333333333</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>640</v>
+      </c>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +19664,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18343,7 +19703,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18378,7 +19742,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18413,7 +19781,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18448,7 +19820,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18483,7 +19859,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18518,7 +19898,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18553,7 +19937,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18588,7 +19976,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18623,7 +20015,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18658,7 +20054,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18693,7 +20093,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18728,7 +20132,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18763,7 +20171,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +20210,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18833,7 +20249,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18868,7 +20288,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18903,7 +20327,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18938,7 +20366,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +20405,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19008,7 +20444,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19043,7 +20483,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19078,7 +20522,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19113,7 +20561,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19148,7 +20600,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +20639,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19218,7 +20678,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19253,7 +20717,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19288,7 +20756,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19323,7 +20795,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19358,7 +20834,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19393,7 +20873,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19428,7 +20912,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +20951,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19498,7 +20990,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19533,7 +21029,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19568,7 +21068,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19603,7 +21107,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19638,7 +21146,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +21185,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19708,7 +21224,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19743,7 +21263,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19778,7 +21302,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19813,7 +21341,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19848,7 +21380,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -19883,7 +21419,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -19918,7 +21458,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -19953,7 +21497,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -19988,7 +21536,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20023,7 +21575,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20058,7 +21614,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20093,7 +21653,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20128,7 +21692,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20163,7 +21731,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20198,7 +21770,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20233,7 +21809,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20268,7 +21848,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +21887,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +21926,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20373,7 +21965,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20408,7 +22004,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20443,7 +22043,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20478,7 +22082,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20513,7 +22121,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20548,7 +22160,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20583,7 +22199,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +22238,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -20653,7 +22277,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -20681,14 +22309,20 @@
         <v>640.75</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>630</v>
+      </c>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -20722,12 +22356,12 @@
         <v>0</v>
       </c>
       <c r="J581" t="n">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M581" t="n">
@@ -20763,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="J582" t="n">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
@@ -20804,7 +22438,7 @@
         <v>0</v>
       </c>
       <c r="J583" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
@@ -20845,7 +22479,7 @@
         <v>0</v>
       </c>
       <c r="J584" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
@@ -20886,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
@@ -20921,14 +22555,12 @@
         <v>639.9</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>622</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
@@ -20962,14 +22594,12 @@
         <v>639.4833333333333</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>622</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
@@ -21003,14 +22633,12 @@
         <v>639.15</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>619</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
@@ -21044,14 +22672,12 @@
         <v>638.7833333333333</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>625</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
@@ -21085,14 +22711,12 @@
         <v>638.4166666666666</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>625</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
@@ -21126,14 +22750,12 @@
         <v>638.0166666666667</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>625</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
@@ -21167,14 +22789,12 @@
         <v>637.6166666666667</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>625</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
@@ -21208,14 +22828,12 @@
         <v>637.3</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>625</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
@@ -21249,14 +22867,12 @@
         <v>637.0166666666667</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>633</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
@@ -21290,14 +22906,12 @@
         <v>636.65</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>628</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
@@ -21331,14 +22945,12 @@
         <v>636.1333333333333</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>619</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
@@ -21372,14 +22984,12 @@
         <v>635.6166666666667</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>619</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
@@ -21413,14 +23023,12 @@
         <v>635.2333333333333</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>620</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
@@ -21454,14 +23062,12 @@
         <v>634.8166666666667</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>627</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
@@ -21495,14 +23101,12 @@
         <v>634.5</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>627</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
@@ -21536,14 +23140,12 @@
         <v>634.1666666666666</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>628</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
@@ -21577,14 +23179,12 @@
         <v>634.0166666666667</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>630</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
@@ -21618,14 +23218,12 @@
         <v>633.8166666666667</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>628</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
@@ -21659,14 +23257,12 @@
         <v>633.4666666666667</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>628</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
@@ -21700,14 +23296,12 @@
         <v>633.35</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>628</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
@@ -21741,14 +23335,12 @@
         <v>633.2166666666667</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>629</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
@@ -21782,14 +23374,12 @@
         <v>633.2</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>637</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
@@ -21823,14 +23413,12 @@
         <v>633.2166666666667</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>637</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
@@ -21864,14 +23452,12 @@
         <v>633.2666666666667</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>639</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
@@ -21905,14 +23491,12 @@
         <v>633.3166666666667</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>640</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
@@ -21946,14 +23530,12 @@
         <v>633.2833333333333</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>637</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
@@ -21987,14 +23569,12 @@
         <v>633.3166666666667</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>642</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
@@ -22028,14 +23608,12 @@
         <v>633.3666666666667</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>643</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
@@ -22498,14 +24076,12 @@
         <v>632.6</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>633</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -22539,14 +24115,12 @@
         <v>632.45</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>635</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -22580,14 +24154,12 @@
         <v>632.35</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>635</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -22621,14 +24193,12 @@
         <v>632.2666666666667</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>635</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -22662,14 +24232,12 @@
         <v>632.3</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>635</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -22703,14 +24271,12 @@
         <v>632.25</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>629</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -22744,14 +24310,12 @@
         <v>632.1833333333333</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>627</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -22785,14 +24349,12 @@
         <v>632.1166666666667</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>628</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
@@ -22826,14 +24388,12 @@
         <v>632</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>634</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
@@ -22867,14 +24427,12 @@
         <v>631.9666666666667</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>634</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>

--- a/BackTest/2019-10-16 BackTest GXC.xlsx
+++ b/BackTest/2019-10-16 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,7 +1870,7 @@
         <v>105887.18400986</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>101118.97860986</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>104664.21540986</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>101281.05420986</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>77106.97480985998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>49788.27410985998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>29338.76780985998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>29338.76780985998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33153.05010985998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>29930.13530985998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>34284.88090985998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>38711.64920985998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>37698.15950985999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>39421.86720985999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>37359.59980985999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>37377.37230985999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>38429.76690985999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>36231.96470985999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>33605.19440985999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>33784.39440985999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33784.39440985999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>25498.59920985999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>31821.58280985999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32694.95050985999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>32694.95050985999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>32694.95050985999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>32558.78940985999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>23833.66410985999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>24084.66400985999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>24084.66400985999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>25365.63310985998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>25319.85050985999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>20334.38630985998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -7249,10 +7249,14 @@
         <v>33676.36214462997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>647</v>
+      </c>
+      <c r="J208" t="n">
+        <v>647</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7282,11 +7286,19 @@
         <v>33494.50494462997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>650</v>
+      </c>
+      <c r="J209" t="n">
+        <v>647</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7327,19 @@
         <v>32369.27924462998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>647</v>
+      </c>
+      <c r="J210" t="n">
+        <v>647</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7368,19 @@
         <v>28062.32594462997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>642</v>
+      </c>
+      <c r="J211" t="n">
+        <v>647</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7409,19 @@
         <v>20835.90544462997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>639</v>
+      </c>
+      <c r="J212" t="n">
+        <v>647</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7450,19 @@
         <v>20323.74564462997</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>637</v>
+      </c>
+      <c r="J213" t="n">
+        <v>647</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7491,19 @@
         <v>17704.83391962997</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>635</v>
+      </c>
+      <c r="J214" t="n">
+        <v>647</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7532,19 @@
         <v>18426.34111962997</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>632</v>
+      </c>
+      <c r="J215" t="n">
+        <v>647</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7573,19 @@
         <v>17923.13711962997</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>637</v>
+      </c>
+      <c r="J216" t="n">
+        <v>647</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7614,19 @@
         <v>13766.17571962997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>635</v>
+      </c>
+      <c r="J217" t="n">
+        <v>647</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7655,19 @@
         <v>14537.17571962997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>625</v>
+      </c>
+      <c r="J218" t="n">
+        <v>647</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7696,19 @@
         <v>14345.37571962997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>637</v>
+      </c>
+      <c r="J219" t="n">
+        <v>647</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7737,19 @@
         <v>13260.07751962997</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>628</v>
+      </c>
+      <c r="J220" t="n">
+        <v>647</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7778,19 @@
         <v>14171.86251962997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>627</v>
+      </c>
+      <c r="J221" t="n">
+        <v>647</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7819,19 @@
         <v>18603.38811962997</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>638</v>
+      </c>
+      <c r="J222" t="n">
+        <v>647</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7860,19 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>640</v>
+      </c>
+      <c r="J223" t="n">
+        <v>647</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7901,19 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>643</v>
+      </c>
+      <c r="J224" t="n">
+        <v>647</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7942,19 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>643</v>
+      </c>
+      <c r="J225" t="n">
+        <v>647</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7983,19 @@
         <v>23861.50681962997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>643</v>
+      </c>
+      <c r="J226" t="n">
+        <v>647</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8024,19 @@
         <v>19278.54061962997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>645</v>
+      </c>
+      <c r="J227" t="n">
+        <v>647</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8065,19 @@
         <v>20546.84701962997</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>643</v>
+      </c>
+      <c r="J228" t="n">
+        <v>647</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8106,19 @@
         <v>20546.84701962997</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>646</v>
+      </c>
+      <c r="J229" t="n">
+        <v>647</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8147,19 @@
         <v>22099.17021962997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>646</v>
+      </c>
+      <c r="J230" t="n">
+        <v>647</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8188,19 @@
         <v>22099.17021962997</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>649</v>
+      </c>
+      <c r="J231" t="n">
+        <v>647</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8229,19 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>649</v>
+      </c>
+      <c r="J232" t="n">
+        <v>647</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8270,19 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>650</v>
+      </c>
+      <c r="J233" t="n">
+        <v>647</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8311,19 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>650</v>
+      </c>
+      <c r="J234" t="n">
+        <v>647</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8352,19 @@
         <v>23600.29121962997</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>650</v>
+      </c>
+      <c r="J235" t="n">
+        <v>647</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8393,19 @@
         <v>25842.13291962997</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>651</v>
+      </c>
+      <c r="J236" t="n">
+        <v>647</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8434,19 @@
         <v>25843.13291962997</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>655</v>
+      </c>
+      <c r="J237" t="n">
+        <v>647</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8475,19 @@
         <v>25843.13291962997</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>656</v>
+      </c>
+      <c r="J238" t="n">
+        <v>647</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8516,19 @@
         <v>26949.71121977997</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>656</v>
+      </c>
+      <c r="J239" t="n">
+        <v>647</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8557,19 @@
         <v>26600.41821977997</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>657</v>
+      </c>
+      <c r="J240" t="n">
+        <v>647</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8598,19 @@
         <v>25778.75271977997</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>654</v>
+      </c>
+      <c r="J241" t="n">
+        <v>647</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8639,19 @@
         <v>25557.69531977997</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>653</v>
+      </c>
+      <c r="J242" t="n">
+        <v>647</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8680,19 @@
         <v>25779.39531977997</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>652</v>
+      </c>
+      <c r="J243" t="n">
+        <v>647</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8721,19 @@
         <v>26672.19261977997</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>654</v>
+      </c>
+      <c r="J244" t="n">
+        <v>647</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8762,19 @@
         <v>29219.40681977997</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>656</v>
+      </c>
+      <c r="J245" t="n">
+        <v>647</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8803,19 @@
         <v>34728.65361962997</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>660</v>
+      </c>
+      <c r="J246" t="n">
+        <v>647</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8844,19 @@
         <v>50613.89901962997</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>670</v>
+      </c>
+      <c r="J247" t="n">
+        <v>647</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8888,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>647</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8927,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>647</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8966,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>647</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9005,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>647</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9044,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>647</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9083,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>647</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9122,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>647</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9161,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>647</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9200,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>647</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9239,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>647</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9278,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>647</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9317,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>647</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9356,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>647</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9395,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>647</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9434,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>647</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9473,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>647</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9512,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>647</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9551,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>647</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9590,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>647</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9629,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>647</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9668,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>647</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9707,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>647</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9746,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>647</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9785,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>647</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9824,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>647</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9860,17 @@
         <v>45701.67478948998</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>647</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9902,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>647</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9941,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>647</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9980,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>647</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +10016,17 @@
         <v>52666.22398948998</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>647</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +10055,17 @@
         <v>58072.00548948998</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>647</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10094,17 @@
         <v>66757.59982483998</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>647</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10133,17 @@
         <v>66654.69923136999</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>647</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10172,17 @@
         <v>66260.61853136998</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>647</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10211,17 @@
         <v>66261.61853136998</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>647</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10250,17 @@
         <v>64630.90613136999</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>647</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10289,17 @@
         <v>64733.54953136999</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>647</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10328,17 @@
         <v>66534.81823136998</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>647</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10367,17 @@
         <v>66518.21823136997</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>647</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10406,17 @@
         <v>66518.21823136997</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>647</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10448,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>647</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10484,17 @@
         <v>66969.91823136997</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>647</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10526,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>647</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10565,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>647</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10604,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>647</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10643,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>647</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10682,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>647</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10718,17 @@
         <v>68186.21643136998</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>647</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10760,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>647</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10799,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>647</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10838,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>647</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10874,17 @@
         <v>71127.99693136997</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>647</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10916,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>647</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10955,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>647</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10994,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>647</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +11033,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>647</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +11072,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>647</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +11111,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>647</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +11150,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>647</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11189,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>647</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11228,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>647</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11267,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>647</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11306,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>647</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11345,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>647</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11384,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>647</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11423,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>647</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11462,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>647</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11501,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>647</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11540,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>647</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11579,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>647</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11618,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>647</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11657,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>647</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11696,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>647</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11735,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>647</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11774,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>647</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11810,17 @@
         <v>71357.65873136996</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>647</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11852,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>647</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11888,17 @@
         <v>72316.43393136996</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>647</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11930,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>647</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11969,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>647</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +12008,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>647</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +12047,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>647</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12086,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>647</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +12125,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>647</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +12164,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>647</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +12203,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>647</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12242,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>647</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12281,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>647</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +12320,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>647</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +12359,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>647</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12398,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>647</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +12437,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>647</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +12476,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>647</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12515,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>647</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12554,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>647</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12593,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>647</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12632,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>647</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12671,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>647</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12710,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>647</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12749,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>647</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12788,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>647</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12827,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>647</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12866,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>647</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12905,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>647</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12944,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>647</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12983,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>647</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +13022,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>647</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +13061,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>647</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +13100,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>647</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +13139,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>647</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +13178,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>647</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +13217,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>647</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +13256,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>647</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +13295,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>647</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +13334,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>647</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +13373,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>647</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +13412,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>647</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +13451,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>647</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +13490,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>647</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +13529,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>647</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +13568,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>647</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>647</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13646,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>647</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13685,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>647</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +13724,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>647</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13763,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>647</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +13802,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>647</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13841,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>647</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +13880,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>647</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +13919,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>647</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +13958,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>647</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13997,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>647</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +14036,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>647</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,15 +14072,15 @@
         <v>63886.73013136996</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>636</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>647</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L381" t="n">
@@ -12997,12 +14111,12 @@
         <v>62736.77203136996</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>637</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>647</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13036,12 +14150,12 @@
         <v>61668.03098176996</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>630</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>647</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13075,12 +14189,12 @@
         <v>65718.11248176996</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>626</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>647</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13114,12 +14228,12 @@
         <v>65458.44488176996</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>644</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>647</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13153,12 +14267,12 @@
         <v>65521.24458176996</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>630</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>647</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13192,12 +14306,12 @@
         <v>65401.24458176996</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>633</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>647</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13231,12 +14345,12 @@
         <v>65428.35528176996</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>631</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>647</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13270,12 +14384,12 @@
         <v>65428.35528176996</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>640</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>647</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13309,12 +14423,12 @@
         <v>64760.97048176996</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>640</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>647</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13351,7 +14465,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>647</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13388,7 +14504,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>647</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13425,7 +14543,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>647</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13462,7 +14582,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>647</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13496,12 +14618,12 @@
         <v>62768.84548176996</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>641</v>
-      </c>
-      <c r="J395" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>647</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13535,12 +14657,12 @@
         <v>62875.53388176996</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>640</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>647</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13574,12 +14696,12 @@
         <v>62503.55758176996</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>642</v>
-      </c>
-      <c r="J397" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>647</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13613,12 +14735,12 @@
         <v>62503.55758176996</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>633</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>647</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13652,12 +14774,12 @@
         <v>62613.86218176996</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>633</v>
-      </c>
-      <c r="J399" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>647</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13691,12 +14813,12 @@
         <v>62478.20778176996</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>641</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>647</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13733,7 +14855,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>647</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13767,12 +14891,12 @@
         <v>61940.38728176996</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>639</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>647</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13809,7 +14933,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>647</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13846,7 +14972,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>647</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13883,7 +15011,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>647</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13920,7 +15050,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>647</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13957,7 +15089,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>647</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13994,7 +15128,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>647</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14031,7 +15167,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>647</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14068,7 +15206,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>647</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14102,12 +15242,12 @@
         <v>61318.26818176996</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>632</v>
-      </c>
-      <c r="J411" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>647</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14141,12 +15281,12 @@
         <v>61079.96338176997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>638</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>647</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14180,12 +15320,12 @@
         <v>61748.28358176997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>628</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>647</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14219,12 +15359,12 @@
         <v>61990.69198176997</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>633</v>
-      </c>
-      <c r="J414" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>647</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14258,12 +15398,12 @@
         <v>61450.84928176997</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>636</v>
-      </c>
-      <c r="J415" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>647</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14297,12 +15437,12 @@
         <v>61584.26758176996</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>635</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>647</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14336,12 +15476,12 @@
         <v>61543.44798176996</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>636</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>647</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14375,12 +15515,12 @@
         <v>61543.44798176996</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>635</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>647</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14414,12 +15554,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>635</v>
-      </c>
-      <c r="J419" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>647</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14453,12 +15593,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>636</v>
-      </c>
-      <c r="J420" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>647</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14492,12 +15632,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>636</v>
-      </c>
-      <c r="J421" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>647</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,12 +15671,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>636</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>647</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,12 +15710,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>636</v>
-      </c>
-      <c r="J423" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>647</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14609,12 +15749,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>636</v>
-      </c>
-      <c r="J424" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>647</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14648,12 +15788,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>636</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>647</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14687,12 +15827,12 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>636</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>647</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14726,12 +15866,12 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>636</v>
-      </c>
-      <c r="J427" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>647</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14765,12 +15905,12 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>639</v>
-      </c>
-      <c r="J428" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>647</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14804,12 +15944,12 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>639</v>
-      </c>
-      <c r="J429" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>647</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14843,12 +15983,12 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>639</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>647</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14882,12 +16022,12 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>639</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>647</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14921,12 +16061,12 @@
         <v>62623.52657288996</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>639</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>647</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14960,12 +16100,12 @@
         <v>62623.52657288996</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>642</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>647</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14999,12 +16139,12 @@
         <v>60695.58297288996</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>642</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>647</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15038,12 +16178,12 @@
         <v>60696.58297288996</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>641</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>647</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15077,12 +16217,12 @@
         <v>60028.83907288996</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>644</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>647</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15116,12 +16256,12 @@
         <v>60607.83047288996</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>639</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>647</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15155,12 +16295,12 @@
         <v>60156.71847288996</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>642</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>647</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15194,12 +16334,12 @@
         <v>60179.72017288996</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>639</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>647</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15233,12 +16373,12 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>640</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>647</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15272,12 +16412,12 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>639</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>647</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15311,12 +16451,12 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>639</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>647</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15350,12 +16490,12 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>639</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>647</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15389,12 +16529,12 @@
         <v>59547.74067288996</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>639</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>647</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15428,12 +16568,12 @@
         <v>59624.70777288996</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>638</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>647</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15467,12 +16607,12 @@
         <v>59624.70777288996</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>639</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>647</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15506,12 +16646,12 @@
         <v>59945.78387288996</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>639</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>647</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15545,12 +16685,12 @@
         <v>59945.78387288996</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>640</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>647</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15584,12 +16724,12 @@
         <v>62025.34457288996</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>640</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>647</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15623,12 +16763,12 @@
         <v>62025.34457288996</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>641</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>647</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15662,12 +16802,12 @@
         <v>62634.71387288996</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>641</v>
-      </c>
-      <c r="J451" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>647</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15701,12 +16841,12 @@
         <v>66373.08013099997</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>642</v>
-      </c>
-      <c r="J452" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>647</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15740,12 +16880,12 @@
         <v>68896.20793099997</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>645</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>647</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15779,12 +16919,12 @@
         <v>71933.63653099997</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>647</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>647</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15818,12 +16958,12 @@
         <v>70111.01639017997</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>654</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>647</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15857,12 +16997,12 @@
         <v>70830.98709017997</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>644</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>647</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15896,12 +17036,12 @@
         <v>70830.98709017997</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>646</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>647</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15935,12 +17075,12 @@
         <v>70830.98709017997</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>646</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>647</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15974,12 +17114,12 @@
         <v>71232.43179017998</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>646</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>647</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16013,12 +17153,12 @@
         <v>73336.22609017997</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>647</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>647</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16052,12 +17192,12 @@
         <v>73336.22609017997</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>649</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>647</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16091,12 +17231,12 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>649</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>647</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16130,12 +17270,12 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>647</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>647</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16169,12 +17309,12 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>647</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>647</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16208,12 +17348,12 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>647</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>647</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16247,12 +17387,12 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>647</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>647</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16286,12 +17426,12 @@
         <v>73542.66989017997</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>647</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>647</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16325,12 +17465,12 @@
         <v>73303.60189017997</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>648</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>647</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16364,12 +17504,12 @@
         <v>73628.05409017997</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>647</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>647</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16403,12 +17543,12 @@
         <v>74488.80029017996</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>648</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>647</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16442,12 +17582,12 @@
         <v>74488.80029017996</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>649</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>647</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16481,12 +17621,12 @@
         <v>74488.80029017996</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>649</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>647</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16520,12 +17660,12 @@
         <v>73819.74149017996</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>649</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>647</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16559,12 +17699,12 @@
         <v>75010.56559017996</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>648</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>647</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16601,7 +17741,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>647</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16638,7 +17780,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>647</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16675,7 +17819,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>647</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,7 +17858,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>647</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,7 +17897,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>647</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,16 +17933,20 @@
         <v>74385.63019017996</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>647</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L480" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
       <c r="M480" t="inlineStr"/>
     </row>
     <row r="481">
@@ -16821,8 +17975,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>647</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16854,8 +18014,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>647</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16887,8 +18053,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>647</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16920,8 +18092,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>647</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16953,8 +18131,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>647</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16986,8 +18170,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>647</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17019,8 +18209,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>647</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17052,8 +18248,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>647</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17085,8 +18287,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>647</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17118,8 +18326,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>647</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17151,8 +18365,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>647</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17184,8 +18404,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>647</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17217,8 +18443,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>647</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17247,11 +18479,17 @@
         <v>94755.26349017996</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>647</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17280,11 +18518,17 @@
         <v>94242.26349017996</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>647</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17313,11 +18557,17 @@
         <v>100187.86016061</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>647</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17346,11 +18596,17 @@
         <v>98210.82261885995</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>647</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17379,11 +18635,17 @@
         <v>94428.56501885995</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>647</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17412,11 +18674,17 @@
         <v>97139.88840667995</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>647</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17445,11 +18713,17 @@
         <v>89847.75910667995</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>647</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17478,13 +18752,19 @@
         <v>93507.13330667996</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>647</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L501" t="n">
-        <v>1</v>
+        <v>1.038276661514683</v>
       </c>
       <c r="M501" t="inlineStr"/>
     </row>
@@ -17511,7 +18791,7 @@
         <v>102022.32260668</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17544,7 +18824,7 @@
         <v>102022.32260668</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17577,7 +18857,7 @@
         <v>98194.86690667995</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17610,7 +18890,7 @@
         <v>88240.61440667995</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17643,7 +18923,7 @@
         <v>87272.43210667995</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17676,7 +18956,7 @@
         <v>89362.11020667995</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17709,7 +18989,7 @@
         <v>89362.11020667995</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17742,7 +19022,7 @@
         <v>91940.22880667995</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17775,7 +19055,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17808,7 +19088,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17841,7 +19121,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17874,7 +19154,7 @@
         <v>91167.46350667995</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17907,7 +19187,7 @@
         <v>87315.50120667995</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17940,7 +19220,7 @@
         <v>87976.25390667995</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17973,7 +19253,7 @@
         <v>86316.34600667995</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18006,7 +19286,7 @@
         <v>84396.05300667994</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18039,7 +19319,7 @@
         <v>85739.72170667993</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18072,7 +19352,7 @@
         <v>83104.60780667994</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18105,7 +19385,7 @@
         <v>83104.60780667994</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18138,7 +19418,7 @@
         <v>82697.35510667994</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18171,7 +19451,7 @@
         <v>82708.35510667994</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18204,7 +19484,7 @@
         <v>80204.18160667994</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18237,7 +19517,7 @@
         <v>79151.02320667994</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18270,7 +19550,7 @@
         <v>79819.25810667993</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18303,7 +19583,7 @@
         <v>71691.75040667993</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18336,7 +19616,7 @@
         <v>69680.92020667993</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18369,7 +19649,7 @@
         <v>64713.53230667993</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18402,7 +19682,7 @@
         <v>70850.11570667994</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18435,7 +19715,7 @@
         <v>70850.11570667994</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18468,7 +19748,7 @@
         <v>70851.11570667994</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18501,7 +19781,7 @@
         <v>70456.68960667994</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18534,7 +19814,7 @@
         <v>68897.51450667995</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18567,7 +19847,7 @@
         <v>70414.60790667994</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18600,7 +19880,7 @@
         <v>66177.04870667994</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18633,7 +19913,7 @@
         <v>66184.62950667994</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18666,7 +19946,7 @@
         <v>66185.62950667994</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18699,7 +19979,7 @@
         <v>66109.71460667993</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18732,7 +20012,7 @@
         <v>66034.23630667993</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18765,7 +20045,7 @@
         <v>65889.02780667994</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18798,7 +20078,7 @@
         <v>62216.34400667994</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18831,7 +20111,7 @@
         <v>63323.31150667994</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18864,7 +20144,7 @@
         <v>65075.32640667994</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18897,7 +20177,7 @@
         <v>65580.08440667993</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18930,7 +20210,7 @@
         <v>65580.08440667993</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18963,7 +20243,7 @@
         <v>68061.78680667993</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18996,7 +20276,7 @@
         <v>68671.54890667993</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19029,7 +20309,7 @@
         <v>67411.01940667993</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19062,7 +20342,7 @@
         <v>58899.69420667993</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19095,7 +20375,7 @@
         <v>59203.04080667993</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20811,14 +22091,10 @@
         <v>60896.11530667992</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>639</v>
-      </c>
-      <c r="J602" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
@@ -20851,14 +22127,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>639</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20887,19 +22157,11 @@
         <v>60551.39770667991</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>649</v>
-      </c>
-      <c r="J604" t="n">
-        <v>639</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20928,14 +22190,10 @@
         <v>60552.96510667991</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>641</v>
-      </c>
-      <c r="J605" t="n">
-        <v>641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
@@ -20965,19 +22223,11 @@
         <v>60175.33360667991</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>645</v>
-      </c>
-      <c r="J606" t="n">
-        <v>641</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21006,19 +22256,11 @@
         <v>60175.33360667991</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>638</v>
-      </c>
-      <c r="J607" t="n">
-        <v>641</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21047,19 +22289,11 @@
         <v>59079.23560667991</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>638</v>
-      </c>
-      <c r="J608" t="n">
-        <v>641</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21088,19 +22322,11 @@
         <v>59079.23560667991</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>637</v>
-      </c>
-      <c r="J609" t="n">
-        <v>641</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21129,19 +22355,11 @@
         <v>59447.95320667991</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>637</v>
-      </c>
-      <c r="J610" t="n">
-        <v>641</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21170,19 +22388,11 @@
         <v>59454.95320667991</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>639</v>
-      </c>
-      <c r="J611" t="n">
-        <v>641</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21211,19 +22421,11 @@
         <v>59454.95320667991</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>640</v>
-      </c>
-      <c r="J612" t="n">
-        <v>641</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21252,19 +22454,11 @@
         <v>59454.95320667991</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>640</v>
-      </c>
-      <c r="J613" t="n">
-        <v>641</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21293,19 +22487,11 @@
         <v>59381.95320667991</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>640</v>
-      </c>
-      <c r="J614" t="n">
-        <v>641</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21334,19 +22520,11 @@
         <v>60140.05310667992</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>639</v>
-      </c>
-      <c r="J615" t="n">
-        <v>641</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21375,19 +22553,11 @@
         <v>60140.05310667992</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>640</v>
-      </c>
-      <c r="J616" t="n">
-        <v>641</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21416,19 +22586,11 @@
         <v>56340.96950667992</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>640</v>
-      </c>
-      <c r="J617" t="n">
-        <v>641</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21457,19 +22619,11 @@
         <v>56749.71190667992</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>639</v>
-      </c>
-      <c r="J618" t="n">
-        <v>641</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21498,19 +22652,11 @@
         <v>56478.67120667992</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>645</v>
-      </c>
-      <c r="J619" t="n">
-        <v>641</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21539,19 +22685,11 @@
         <v>56766.02620667993</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>639</v>
-      </c>
-      <c r="J620" t="n">
-        <v>641</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21580,19 +22718,11 @@
         <v>56689.53750667992</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>646</v>
-      </c>
-      <c r="J621" t="n">
-        <v>641</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21621,19 +22751,11 @@
         <v>56690.53750667992</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>638</v>
-      </c>
-      <c r="J622" t="n">
-        <v>641</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21662,19 +22784,11 @@
         <v>56690.53750667992</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="n">
-        <v>644</v>
-      </c>
-      <c r="J623" t="n">
-        <v>641</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21703,19 +22817,11 @@
         <v>56133.72130667992</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="n">
-        <v>644</v>
-      </c>
-      <c r="J624" t="n">
-        <v>641</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21744,19 +22850,11 @@
         <v>56134.72130667992</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="n">
-        <v>640</v>
-      </c>
-      <c r="J625" t="n">
-        <v>641</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21785,19 +22883,11 @@
         <v>55806.14740667992</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>644</v>
-      </c>
-      <c r="J626" t="n">
-        <v>641</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21826,19 +22916,11 @@
         <v>55471.14740667992</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>641</v>
-      </c>
-      <c r="J627" t="n">
-        <v>641</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21867,19 +22949,11 @@
         <v>50125.48340667992</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>640</v>
-      </c>
-      <c r="J628" t="n">
-        <v>641</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21908,19 +22982,11 @@
         <v>49619.91210667992</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>633</v>
-      </c>
-      <c r="J629" t="n">
-        <v>641</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21949,19 +23015,11 @@
         <v>49294.52580667992</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>632</v>
-      </c>
-      <c r="J630" t="n">
-        <v>641</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21990,19 +23048,11 @@
         <v>49294.52580667992</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>631</v>
-      </c>
-      <c r="J631" t="n">
-        <v>641</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22031,19 +23081,11 @@
         <v>49295.52580667992</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>631</v>
-      </c>
-      <c r="J632" t="n">
-        <v>641</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22072,19 +23114,11 @@
         <v>49197.47580667992</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>639</v>
-      </c>
-      <c r="J633" t="n">
-        <v>641</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22113,19 +23147,11 @@
         <v>49197.47580667992</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>631</v>
-      </c>
-      <c r="J634" t="n">
-        <v>641</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22154,19 +23180,11 @@
         <v>49254.47580667992</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>631</v>
-      </c>
-      <c r="J635" t="n">
-        <v>641</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22195,19 +23213,11 @@
         <v>49128.90290667992</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>632</v>
-      </c>
-      <c r="J636" t="n">
-        <v>641</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22239,14 +23249,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>641</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22275,19 +23279,11 @@
         <v>49128.90290667992</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>630</v>
-      </c>
-      <c r="J638" t="n">
-        <v>641</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22316,19 +23312,11 @@
         <v>50407.04240667992</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>630</v>
-      </c>
-      <c r="J639" t="n">
-        <v>641</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22357,19 +23345,11 @@
         <v>52037.78950667992</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>631</v>
-      </c>
-      <c r="J640" t="n">
-        <v>641</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22398,19 +23378,11 @@
         <v>52015.37300667992</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>639</v>
-      </c>
-      <c r="J641" t="n">
-        <v>641</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22442,14 +23414,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>641</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22478,19 +23444,11 @@
         <v>51603.77050667992</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>635</v>
-      </c>
-      <c r="J643" t="n">
-        <v>641</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22522,14 +23480,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>641</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22561,14 +23513,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>641</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22600,14 +23546,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>641</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22639,14 +23579,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>641</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22678,14 +23612,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>641</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22717,14 +23645,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>641</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22753,19 +23675,11 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>625</v>
-      </c>
-      <c r="J650" t="n">
-        <v>641</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22794,19 +23708,11 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>625</v>
-      </c>
-      <c r="J651" t="n">
-        <v>641</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22835,19 +23741,11 @@
         <v>54602.77260667992</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>625</v>
-      </c>
-      <c r="J652" t="n">
-        <v>641</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22876,19 +23774,11 @@
         <v>54608.53660667992</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>630</v>
-      </c>
-      <c r="J653" t="n">
-        <v>641</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22917,19 +23807,11 @@
         <v>54553.59070667992</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>633</v>
-      </c>
-      <c r="J654" t="n">
-        <v>641</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22958,19 +23840,11 @@
         <v>54545.65860667992</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>628</v>
-      </c>
-      <c r="J655" t="n">
-        <v>641</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22999,19 +23873,11 @@
         <v>54545.65860667992</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="n">
-        <v>619</v>
-      </c>
-      <c r="J656" t="n">
-        <v>641</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23040,19 +23906,11 @@
         <v>56119.08890667992</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="n">
-        <v>619</v>
-      </c>
-      <c r="J657" t="n">
-        <v>641</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23081,19 +23939,11 @@
         <v>56119.08890667992</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>627</v>
-      </c>
-      <c r="J658" t="n">
-        <v>641</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23122,19 +23972,11 @@
         <v>56119.08890667992</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="n">
-        <v>627</v>
-      </c>
-      <c r="J659" t="n">
-        <v>641</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23163,19 +24005,11 @@
         <v>54842.68030667992</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>627</v>
-      </c>
-      <c r="J660" t="n">
-        <v>641</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23204,19 +24038,11 @@
         <v>54843.68030667992</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>617</v>
-      </c>
-      <c r="J661" t="n">
-        <v>641</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23245,19 +24071,11 @@
         <v>54239.18030667992</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>630</v>
-      </c>
-      <c r="J662" t="n">
-        <v>641</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23286,19 +24104,11 @@
         <v>54239.18030667992</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>628</v>
-      </c>
-      <c r="J663" t="n">
-        <v>641</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23327,19 +24137,11 @@
         <v>55229.68670667992</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>628</v>
-      </c>
-      <c r="J664" t="n">
-        <v>641</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23368,19 +24170,11 @@
         <v>55718.35710667992</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>634</v>
-      </c>
-      <c r="J665" t="n">
-        <v>641</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23409,19 +24203,11 @@
         <v>55718.35710667992</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>637</v>
-      </c>
-      <c r="J666" t="n">
-        <v>641</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23450,19 +24236,11 @@
         <v>56278.35710667992</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="n">
-        <v>637</v>
-      </c>
-      <c r="J667" t="n">
-        <v>641</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23494,14 +24272,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>641</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23533,14 +24305,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>641</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23572,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>641</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23611,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>641</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23650,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>641</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23689,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>641</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23728,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>641</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23767,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>641</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23806,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>641</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23845,14 +24569,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>641</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23881,19 +24599,11 @@
         <v>57209.89430667992</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>635</v>
-      </c>
-      <c r="J678" t="n">
-        <v>641</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23922,19 +24632,11 @@
         <v>56768.48400667992</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="n">
-        <v>635</v>
-      </c>
-      <c r="J679" t="n">
-        <v>641</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23963,19 +24665,11 @@
         <v>56356.91300667991</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>634</v>
-      </c>
-      <c r="J680" t="n">
-        <v>641</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24004,19 +24698,11 @@
         <v>56359.66576257991</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>633</v>
-      </c>
-      <c r="J681" t="n">
-        <v>641</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24045,19 +24731,11 @@
         <v>56115.13866257991</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>635</v>
-      </c>
-      <c r="J682" t="n">
-        <v>641</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24086,19 +24764,11 @@
         <v>56856.13866257991</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>634</v>
-      </c>
-      <c r="J683" t="n">
-        <v>641</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24127,19 +24797,11 @@
         <v>56647.88346257991</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>635</v>
-      </c>
-      <c r="J684" t="n">
-        <v>641</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24168,19 +24830,11 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>633</v>
-      </c>
-      <c r="J685" t="n">
-        <v>641</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24209,19 +24863,11 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>635</v>
-      </c>
-      <c r="J686" t="n">
-        <v>641</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24250,19 +24896,11 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>635</v>
-      </c>
-      <c r="J687" t="n">
-        <v>641</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24291,19 +24929,11 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>635</v>
-      </c>
-      <c r="J688" t="n">
-        <v>641</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24332,19 +24962,11 @@
         <v>58971.11060667991</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>635</v>
-      </c>
-      <c r="J689" t="n">
-        <v>641</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24373,19 +24995,11 @@
         <v>58864.68890667991</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>629</v>
-      </c>
-      <c r="J690" t="n">
-        <v>641</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24414,19 +25028,11 @@
         <v>58864.68890667991</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>627</v>
-      </c>
-      <c r="J691" t="n">
-        <v>641</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24455,19 +25061,15 @@
         <v>59762.56836081991</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>627</v>
       </c>
       <c r="J692" t="n">
-        <v>641</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24496,17 +25098,15 @@
         <v>59242.13416081991</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L693" t="n">
@@ -24537,17 +25137,15 @@
         <v>59258.13416081991</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L694" t="n">
@@ -24578,19 +25176,11 @@
         <v>59178.13416081991</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
-      </c>
-      <c r="I695" t="n">
-        <v>631</v>
-      </c>
-      <c r="J695" t="n">
-        <v>641</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24619,19 +25209,11 @@
         <v>59502.2255608199</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
-      </c>
-      <c r="I696" t="n">
-        <v>629</v>
-      </c>
-      <c r="J696" t="n">
-        <v>641</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24660,19 +25242,11 @@
         <v>59057.44496081991</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>634</v>
-      </c>
-      <c r="J697" t="n">
-        <v>641</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24701,19 +25275,15 @@
         <v>59059.5884939399</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>629</v>
       </c>
       <c r="J698" t="n">
-        <v>641</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24742,17 +25312,17 @@
         <v>58524.5884939399</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>634</v>
       </c>
       <c r="J699" t="n">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L699" t="n">
@@ -24783,13 +25353,13 @@
         <v>58524.5884939399</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>628</v>
       </c>
       <c r="J700" t="n">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24824,13 +25394,13 @@
         <v>57180.9314939399</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>628</v>
       </c>
       <c r="J701" t="n">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24865,13 +25435,13 @@
         <v>57261.9314939399</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>627</v>
       </c>
       <c r="J702" t="n">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24906,13 +25476,13 @@
         <v>56646.24389393991</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>632</v>
       </c>
       <c r="J703" t="n">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24925,6 +25495,6 @@
       <c r="M703" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest GXC.xlsx
+++ b/BackTest/2019-10-16 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>24232.99110262</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>33728.13620262</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>27730.23360262</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>30107.45230262</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>30774.47710981</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>42944.78984697</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>61842.52230986</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>73253.16790986</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>65955.78860986</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>50915.80690986</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>47471.95740986001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>63446.24210986</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>69373.29190986</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>68576.13750986</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>68878.31850985999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>57654.29200986</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>60037.23990986001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>64913.72550986001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>65451.03330986001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>96976.84330986001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>105887.18400986</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>101118.97860986</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>104664.21540986</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>101281.05420986</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>77106.97480985998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>49788.27410985998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>29338.76780985998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>29338.76780985998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33153.05010985998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>29930.13530985998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>34284.88090985998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>38711.64920985998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>37698.15950985999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>39421.86720985999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>37359.59980985999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>37377.37230985999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>38429.76690985999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>36231.96470985999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>33605.19440985999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>33784.39440985999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33784.39440985999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>25498.59920985999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>31821.58280985999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32694.95050985999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>32694.95050985999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>32694.95050985999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>32558.78940985999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>23833.66410985999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>24084.66400985999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>24084.66400985999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>25365.63310985998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>25319.85050985999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>20334.38630985998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -7249,14 +7249,10 @@
         <v>33676.36214462997</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>647</v>
-      </c>
-      <c r="J208" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7286,183 +7282,149 @@
         <v>33494.50494462997</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>650</v>
-      </c>
-      <c r="J209" t="n">
-        <v>647</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>644</v>
+      </c>
+      <c r="C210" t="n">
+        <v>642</v>
+      </c>
+      <c r="D210" t="n">
+        <v>644</v>
+      </c>
+      <c r="E210" t="n">
+        <v>642</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1125.2257</v>
+      </c>
+      <c r="G210" t="n">
+        <v>32369.27924462998</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>642</v>
+      </c>
+      <c r="C211" t="n">
+        <v>639</v>
+      </c>
+      <c r="D211" t="n">
+        <v>642</v>
+      </c>
+      <c r="E211" t="n">
+        <v>639</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4306.9533</v>
+      </c>
+      <c r="G211" t="n">
+        <v>28062.32594462997</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>639</v>
+      </c>
+      <c r="C212" t="n">
+        <v>637</v>
+      </c>
+      <c r="D212" t="n">
+        <v>639</v>
+      </c>
+      <c r="E212" t="n">
+        <v>637</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7226.4205</v>
+      </c>
+      <c r="G212" t="n">
+        <v>20835.90544462997</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>636</v>
+      </c>
+      <c r="C213" t="n">
+        <v>635</v>
+      </c>
+      <c r="D213" t="n">
+        <v>636</v>
+      </c>
+      <c r="E213" t="n">
+        <v>635</v>
+      </c>
+      <c r="F213" t="n">
+        <v>512.1598</v>
+      </c>
+      <c r="G213" t="n">
+        <v>20323.74564462997</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>637</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>644</v>
-      </c>
-      <c r="C210" t="n">
-        <v>642</v>
-      </c>
-      <c r="D210" t="n">
-        <v>644</v>
-      </c>
-      <c r="E210" t="n">
-        <v>642</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1125.2257</v>
-      </c>
-      <c r="G210" t="n">
-        <v>32369.27924462998</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>647</v>
-      </c>
-      <c r="J210" t="n">
-        <v>647</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>642</v>
-      </c>
-      <c r="C211" t="n">
-        <v>639</v>
-      </c>
-      <c r="D211" t="n">
-        <v>642</v>
-      </c>
-      <c r="E211" t="n">
-        <v>639</v>
-      </c>
-      <c r="F211" t="n">
-        <v>4306.9533</v>
-      </c>
-      <c r="G211" t="n">
-        <v>28062.32594462997</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>642</v>
-      </c>
-      <c r="J211" t="n">
-        <v>647</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>639</v>
-      </c>
-      <c r="C212" t="n">
-        <v>637</v>
-      </c>
-      <c r="D212" t="n">
-        <v>639</v>
-      </c>
-      <c r="E212" t="n">
-        <v>637</v>
-      </c>
-      <c r="F212" t="n">
-        <v>7226.4205</v>
-      </c>
-      <c r="G212" t="n">
-        <v>20835.90544462997</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>639</v>
-      </c>
-      <c r="J212" t="n">
-        <v>647</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>636</v>
-      </c>
-      <c r="C213" t="n">
-        <v>635</v>
-      </c>
-      <c r="D213" t="n">
-        <v>636</v>
-      </c>
-      <c r="E213" t="n">
-        <v>635</v>
-      </c>
-      <c r="F213" t="n">
-        <v>512.1598</v>
-      </c>
-      <c r="G213" t="n">
-        <v>20323.74564462997</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>637</v>
-      </c>
-      <c r="J213" t="n">
-        <v>647</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7491,14 +7453,10 @@
         <v>17704.83391962997</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>635</v>
-      </c>
-      <c r="J214" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,9 +7495,7 @@
       <c r="I215" t="n">
         <v>632</v>
       </c>
-      <c r="J215" t="n">
-        <v>647</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,9 +7534,7 @@
       <c r="I216" t="n">
         <v>637</v>
       </c>
-      <c r="J216" t="n">
-        <v>647</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,9 +7573,7 @@
       <c r="I217" t="n">
         <v>635</v>
       </c>
-      <c r="J217" t="n">
-        <v>647</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,9 +7612,7 @@
       <c r="I218" t="n">
         <v>625</v>
       </c>
-      <c r="J218" t="n">
-        <v>647</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,14 +7646,10 @@
         <v>14345.37571962997</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>637</v>
-      </c>
-      <c r="J219" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,9 +7688,7 @@
       <c r="I220" t="n">
         <v>628</v>
       </c>
-      <c r="J220" t="n">
-        <v>647</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7783,9 +7727,7 @@
       <c r="I221" t="n">
         <v>627</v>
       </c>
-      <c r="J221" t="n">
-        <v>647</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7819,14 +7761,10 @@
         <v>18603.38811962997</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>638</v>
-      </c>
-      <c r="J222" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7860,14 +7798,10 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>640</v>
-      </c>
-      <c r="J223" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7901,14 +7835,10 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>643</v>
-      </c>
-      <c r="J224" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,9 +7877,7 @@
       <c r="I225" t="n">
         <v>643</v>
       </c>
-      <c r="J225" t="n">
-        <v>647</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7983,14 +7911,10 @@
         <v>23861.50681962997</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>643</v>
-      </c>
-      <c r="J226" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,14 +7948,10 @@
         <v>19278.54061962997</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>645</v>
-      </c>
-      <c r="J227" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8065,14 +7985,10 @@
         <v>20546.84701962997</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>643</v>
-      </c>
-      <c r="J228" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8111,9 +8027,7 @@
       <c r="I229" t="n">
         <v>646</v>
       </c>
-      <c r="J229" t="n">
-        <v>647</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8147,14 +8061,10 @@
         <v>22099.17021962997</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>646</v>
-      </c>
-      <c r="J230" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,14 +8098,10 @@
         <v>22099.17021962997</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>649</v>
-      </c>
-      <c r="J231" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,9 +8140,7 @@
       <c r="I232" t="n">
         <v>649</v>
       </c>
-      <c r="J232" t="n">
-        <v>647</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,9 +8179,7 @@
       <c r="I233" t="n">
         <v>650</v>
       </c>
-      <c r="J233" t="n">
-        <v>647</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8316,9 +8218,7 @@
       <c r="I234" t="n">
         <v>650</v>
       </c>
-      <c r="J234" t="n">
-        <v>647</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8352,14 +8252,10 @@
         <v>23600.29121962997</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>650</v>
-      </c>
-      <c r="J235" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8393,14 +8289,10 @@
         <v>25842.13291962997</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>651</v>
-      </c>
-      <c r="J236" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8434,14 +8326,10 @@
         <v>25843.13291962997</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>655</v>
-      </c>
-      <c r="J237" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8475,14 +8363,10 @@
         <v>25843.13291962997</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>656</v>
-      </c>
-      <c r="J238" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,14 +8400,10 @@
         <v>26949.71121977997</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>656</v>
-      </c>
-      <c r="J239" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8557,14 +8437,10 @@
         <v>26600.41821977997</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>657</v>
-      </c>
-      <c r="J240" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8603,9 +8479,7 @@
       <c r="I241" t="n">
         <v>654</v>
       </c>
-      <c r="J241" t="n">
-        <v>647</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8644,9 +8518,7 @@
       <c r="I242" t="n">
         <v>653</v>
       </c>
-      <c r="J242" t="n">
-        <v>647</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,9 +8557,7 @@
       <c r="I243" t="n">
         <v>652</v>
       </c>
-      <c r="J243" t="n">
-        <v>647</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8726,9 +8596,7 @@
       <c r="I244" t="n">
         <v>654</v>
       </c>
-      <c r="J244" t="n">
-        <v>647</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8767,9 +8635,7 @@
       <c r="I245" t="n">
         <v>656</v>
       </c>
-      <c r="J245" t="n">
-        <v>647</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8808,9 +8674,7 @@
       <c r="I246" t="n">
         <v>660</v>
       </c>
-      <c r="J246" t="n">
-        <v>647</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,14 +8708,10 @@
         <v>50613.89901962997</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>670</v>
-      </c>
-      <c r="J247" t="n">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8888,9 +8748,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>647</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8927,9 +8785,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>647</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8966,9 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>647</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9005,9 +8859,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>647</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9044,9 +8896,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>647</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9083,9 +8933,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>647</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9122,9 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>647</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9161,9 +9007,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>647</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9200,9 +9044,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>647</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9239,9 +9081,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>647</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,9 +9118,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>647</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9317,9 +9155,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>647</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9356,9 +9192,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>647</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9395,9 +9229,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>647</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9434,9 +9266,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>647</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9473,9 +9303,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>647</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9512,9 +9340,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>647</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,9 +9377,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>647</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9590,9 +9414,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>647</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9629,9 +9451,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>647</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,9 +9488,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>647</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9707,9 +9525,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>647</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9746,9 +9562,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>647</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9785,9 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>647</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,20 +9633,16 @@
         <v>47790.45658948998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>647</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -9860,17 +9668,11 @@
         <v>45701.67478948998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>647</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9902,14 +9704,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>647</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9941,14 +9737,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>647</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9980,14 +9770,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>647</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10019,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>647</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10058,14 +9836,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>647</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10097,14 +9869,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>647</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10136,14 +9902,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>647</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10175,14 +9935,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>647</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10214,14 +9968,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>647</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10253,14 +10001,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>647</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10292,14 +10034,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>647</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10331,14 +10067,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>647</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10370,14 +10100,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>647</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10409,14 +10133,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>647</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10448,14 +10166,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>647</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10487,14 +10199,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>647</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10526,14 +10232,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>647</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10565,14 +10265,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>647</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10604,14 +10298,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>647</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10643,14 +10331,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>647</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10682,14 +10364,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>647</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10721,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>647</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10760,14 +10430,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>647</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10799,14 +10463,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>647</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10838,14 +10496,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>647</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10877,14 +10529,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>647</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10916,14 +10562,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>647</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10955,14 +10595,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>647</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10628,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>647</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11033,14 +10661,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>647</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11072,14 +10694,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>647</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11111,14 +10727,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>647</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11150,14 +10760,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>647</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11189,14 +10793,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>647</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11228,14 +10826,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>647</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11267,14 +10859,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>647</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11306,14 +10892,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>647</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11345,14 +10925,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>647</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11384,14 +10958,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>647</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11423,14 +10991,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>647</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11462,14 +11024,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>647</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11501,14 +11057,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>647</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +11090,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>647</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +11123,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>647</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11618,14 +11156,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>647</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11657,14 +11189,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>647</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11696,14 +11222,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>647</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11732,17 +11252,11 @@
         <v>71539.78253136996</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>647</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11774,14 +11288,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>647</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11813,14 +11321,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>647</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11852,14 +11354,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>647</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11891,14 +11387,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>647</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11930,14 +11420,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>647</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11969,14 +11453,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>647</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12008,14 +11486,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>647</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12047,14 +11519,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>647</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12086,14 +11552,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>647</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12125,14 +11585,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>647</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12164,14 +11618,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>647</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12203,14 +11651,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>647</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12242,14 +11684,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>647</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12281,14 +11717,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>647</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12320,14 +11750,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>647</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12359,14 +11783,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>647</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12398,14 +11816,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>647</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12437,14 +11849,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>647</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12476,14 +11882,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>647</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12515,14 +11915,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>647</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12554,14 +11948,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>647</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12593,14 +11981,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>647</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12632,14 +12014,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>647</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12671,14 +12047,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>647</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12710,14 +12080,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>647</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12749,14 +12113,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>647</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12788,14 +12146,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>647</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12827,14 +12179,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>647</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12866,14 +12212,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>647</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12905,14 +12245,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>647</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12944,14 +12278,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>647</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12983,14 +12311,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>647</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13022,14 +12344,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>647</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13061,14 +12377,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>647</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13100,14 +12410,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>647</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13139,14 +12443,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>647</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13178,14 +12476,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>647</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13217,14 +12509,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>647</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13256,14 +12542,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>647</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13295,14 +12575,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>647</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13334,14 +12608,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>647</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13373,14 +12641,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>647</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13412,14 +12674,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>647</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13451,14 +12707,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>647</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13490,14 +12740,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>647</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13529,14 +12773,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>647</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13568,14 +12806,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>647</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13607,14 +12839,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>647</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13646,14 +12872,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>647</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13685,14 +12905,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>647</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13724,14 +12938,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>647</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13763,14 +12971,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>647</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13802,14 +13004,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>647</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13841,14 +13037,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>647</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13880,14 +13070,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>647</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13919,14 +13103,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>647</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13958,14 +13136,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>647</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13997,14 +13169,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>647</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14036,14 +13202,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>647</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14075,14 +13235,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>647</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14114,14 +13268,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>647</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14153,14 +13301,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>647</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14192,14 +13334,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>647</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14231,14 +13367,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>647</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14270,14 +13400,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>647</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14309,14 +13433,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>647</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14348,14 +13466,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>647</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14387,14 +13499,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>647</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14426,14 +13532,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>647</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14465,14 +13565,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>647</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14504,14 +13598,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>647</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14543,14 +13631,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>647</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14582,14 +13664,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>647</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14621,14 +13697,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>647</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14660,14 +13730,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>647</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14699,14 +13763,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>647</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14738,14 +13796,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>647</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14777,14 +13829,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>647</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14816,14 +13862,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>647</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14855,14 +13895,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>647</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14894,14 +13928,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>647</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14933,14 +13961,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>647</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14972,14 +13994,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>647</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15011,14 +14027,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>647</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15050,14 +14060,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>647</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15089,14 +14093,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>647</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15128,14 +14126,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>647</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15167,14 +14159,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>647</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15206,14 +14192,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>647</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15245,14 +14225,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>647</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15284,14 +14258,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>647</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15323,14 +14291,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>647</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15362,14 +14324,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>647</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15401,14 +14357,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>647</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15440,14 +14390,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>647</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15479,14 +14423,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>647</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15518,14 +14456,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>647</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15557,14 +14489,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>647</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15596,14 +14522,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>647</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15635,14 +14555,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>647</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15674,14 +14588,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>647</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15713,14 +14621,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>647</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15752,14 +14654,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>647</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15791,14 +14687,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>647</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15830,14 +14720,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>647</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15869,14 +14753,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>647</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15908,14 +14786,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>647</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15947,14 +14819,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>647</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15986,14 +14852,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>647</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16025,14 +14885,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>647</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16064,14 +14918,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>647</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16103,14 +14951,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>647</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16142,14 +14984,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>647</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16181,14 +15017,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>647</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16220,14 +15050,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>647</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16259,14 +15083,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>647</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16298,14 +15116,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>647</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16337,14 +15149,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>647</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16376,14 +15182,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>647</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16415,14 +15215,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>647</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16454,14 +15248,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>647</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16493,14 +15281,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>647</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16532,14 +15314,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>647</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16571,14 +15347,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>647</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16610,14 +15380,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>647</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16649,14 +15413,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>647</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16688,14 +15446,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>647</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16727,14 +15479,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>647</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16766,14 +15512,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>647</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16805,14 +15545,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>647</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16844,14 +15578,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>647</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16883,14 +15611,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>647</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16922,14 +15644,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>647</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16961,14 +15677,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>647</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17000,14 +15710,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>647</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17039,14 +15743,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>647</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17078,14 +15776,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>647</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17117,14 +15809,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>647</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17156,14 +15842,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>647</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17195,14 +15875,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>647</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17234,14 +15908,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>647</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17273,14 +15941,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>647</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17312,14 +15974,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>647</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17351,14 +16007,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>647</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17390,14 +16040,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>647</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17429,14 +16073,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>647</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17468,14 +16106,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>647</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17507,14 +16139,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>647</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17546,14 +16172,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>647</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17585,14 +16205,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>647</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17624,14 +16238,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>647</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17663,14 +16271,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>647</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17702,14 +16304,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>647</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17741,14 +16337,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>647</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17780,14 +16370,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>647</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17819,14 +16403,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>647</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17858,14 +16436,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>647</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17897,14 +16469,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>647</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17936,14 +16502,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>647</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17975,14 +16535,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>647</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18014,14 +16568,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>647</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18053,14 +16601,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>647</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18092,14 +16634,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>647</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18131,14 +16667,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>647</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18170,14 +16700,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>647</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18209,14 +16733,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>647</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18248,14 +16766,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>647</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18287,14 +16799,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>647</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18326,14 +16832,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>647</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18365,14 +16865,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>647</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18404,14 +16898,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>647</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18443,14 +16931,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>647</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18482,14 +16964,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>647</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18521,14 +16997,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>647</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18560,14 +17030,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>647</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18599,14 +17063,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>647</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18638,14 +17096,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>647</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18677,14 +17129,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>647</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18716,14 +17162,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>647</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18752,19 +17192,13 @@
         <v>93507.13330667996</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>647</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
-        <v>1.038276661514683</v>
+        <v>1</v>
       </c>
       <c r="M501" t="inlineStr"/>
     </row>
@@ -18791,7 +17225,7 @@
         <v>102022.32260668</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18824,7 +17258,7 @@
         <v>102022.32260668</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18857,7 +17291,7 @@
         <v>98194.86690667995</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18890,7 +17324,7 @@
         <v>88240.61440667995</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18923,7 +17357,7 @@
         <v>87272.43210667995</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18956,7 +17390,7 @@
         <v>89362.11020667995</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18989,7 +17423,7 @@
         <v>89362.11020667995</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19022,7 +17456,7 @@
         <v>91940.22880667995</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19055,7 +17489,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19088,7 +17522,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19121,7 +17555,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19154,7 +17588,7 @@
         <v>91167.46350667995</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19187,7 +17621,7 @@
         <v>87315.50120667995</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19220,7 +17654,7 @@
         <v>87976.25390667995</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19253,7 +17687,7 @@
         <v>86316.34600667995</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19286,7 +17720,7 @@
         <v>84396.05300667994</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19319,7 +17753,7 @@
         <v>85739.72170667993</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19352,7 +17786,7 @@
         <v>83104.60780667994</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19385,7 +17819,7 @@
         <v>83104.60780667994</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19418,7 +17852,7 @@
         <v>82697.35510667994</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19451,7 +17885,7 @@
         <v>82708.35510667994</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19484,7 +17918,7 @@
         <v>80204.18160667994</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19517,7 +17951,7 @@
         <v>79151.02320667994</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19550,7 +17984,7 @@
         <v>79819.25810667993</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19583,7 +18017,7 @@
         <v>71691.75040667993</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19616,7 +18050,7 @@
         <v>69680.92020667993</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19649,7 +18083,7 @@
         <v>64713.53230667993</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19682,7 +18116,7 @@
         <v>70850.11570667994</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19715,7 +18149,7 @@
         <v>70850.11570667994</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19748,7 +18182,7 @@
         <v>70851.11570667994</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19781,7 +18215,7 @@
         <v>70456.68960667994</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19814,7 +18248,7 @@
         <v>68897.51450667995</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19847,7 +18281,7 @@
         <v>70414.60790667994</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19880,7 +18314,7 @@
         <v>66177.04870667994</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19913,7 +18347,7 @@
         <v>66184.62950667994</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19946,7 +18380,7 @@
         <v>66185.62950667994</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19979,7 +18413,7 @@
         <v>66109.71460667993</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20012,7 +18446,7 @@
         <v>66034.23630667993</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20045,7 +18479,7 @@
         <v>65889.02780667994</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20078,7 +18512,7 @@
         <v>62216.34400667994</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20111,7 +18545,7 @@
         <v>63323.31150667994</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20144,7 +18578,7 @@
         <v>65075.32640667994</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20177,7 +18611,7 @@
         <v>65580.08440667993</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20210,7 +18644,7 @@
         <v>65580.08440667993</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20243,7 +18677,7 @@
         <v>68061.78680667993</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20276,7 +18710,7 @@
         <v>68671.54890667993</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20309,7 +18743,7 @@
         <v>67411.01940667993</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20342,7 +18776,7 @@
         <v>58899.69420667993</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20375,7 +18809,7 @@
         <v>59203.04080667993</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -23411,10 +21845,14 @@
         <v>52016.37300667992</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>621</v>
+      </c>
+      <c r="J642" t="n">
+        <v>621</v>
+      </c>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
@@ -23447,8 +21885,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>621</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23480,8 +21924,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>621</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25061,14 +23511,10 @@
         <v>59762.56836081991</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>627</v>
-      </c>
-      <c r="J692" t="n">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
@@ -25101,14 +23547,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>627</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25140,14 +23580,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>627</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25275,14 +23709,10 @@
         <v>59059.5884939399</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>629</v>
-      </c>
-      <c r="J698" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
@@ -25312,19 +23742,11 @@
         <v>58524.5884939399</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>634</v>
-      </c>
-      <c r="J699" t="n">
-        <v>629</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25353,19 +23775,11 @@
         <v>58524.5884939399</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>628</v>
-      </c>
-      <c r="J700" t="n">
-        <v>629</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25394,19 +23808,11 @@
         <v>57180.9314939399</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>628</v>
-      </c>
-      <c r="J701" t="n">
-        <v>629</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25435,19 +23841,11 @@
         <v>57261.9314939399</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>627</v>
-      </c>
-      <c r="J702" t="n">
-        <v>629</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25476,25 +23874,17 @@
         <v>56646.24389393991</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>632</v>
-      </c>
-      <c r="J703" t="n">
-        <v>629</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
       <c r="M703" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest GXC.xlsx
+++ b/BackTest/2019-10-16 BackTest GXC.xlsx
@@ -451,7 +451,7 @@
         <v>24232.99110262</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>25686.63680262</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>638</v>
+      </c>
+      <c r="J3" t="n">
+        <v>638</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,17 @@
         <v>33728.13620262</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>638</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>27730.23360262</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>638</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +599,7 @@
         <v>30107.45230262</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +632,7 @@
         <v>30774.47710981</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +665,7 @@
         <v>42944.78984697</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +698,7 @@
         <v>61842.52230986</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +731,7 @@
         <v>73253.16790986</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +764,7 @@
         <v>65955.78860986</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1012,7 +1028,7 @@
         <v>50915.80690986</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1061,7 @@
         <v>47471.95740986001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1094,7 @@
         <v>63446.24210986</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1127,7 @@
         <v>69373.29190986</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1160,7 @@
         <v>68576.13750986</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1193,7 @@
         <v>68878.31850985999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1457,7 @@
         <v>57654.29200986</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1490,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1523,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
         <v>60037.23990986001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1589,7 @@
         <v>64913.72550986001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1622,7 @@
         <v>65451.03330986001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1655,7 @@
         <v>96976.84330986001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>119431.93500986</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1853,7 @@
         <v>131617.29880986</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1886,7 @@
         <v>105887.18400986</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1919,7 @@
         <v>101118.97860986</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>104664.21540986</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>101281.05420986</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>77106.97480985998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>49788.27410985998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -7414,17 +7430,11 @@
         <v>20323.74564462997</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7467,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7490,17 +7496,11 @@
         <v>18426.34111962997</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7529,17 +7529,11 @@
         <v>17923.13711962997</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7568,17 +7562,11 @@
         <v>13766.17571962997</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7607,17 +7595,11 @@
         <v>14537.17571962997</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7632,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7683,17 +7661,11 @@
         <v>13260.07751962997</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7722,17 +7694,11 @@
         <v>14171.86251962997</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7765,11 +7731,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +7764,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7839,11 +7797,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7872,17 +7826,11 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7915,11 +7863,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +7896,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7989,11 +7929,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8022,17 +7958,11 @@
         <v>20546.84701962997</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +7995,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8102,11 +8028,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8135,17 +8057,11 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8174,17 +8090,11 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8213,17 +8123,11 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +8160,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +8193,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8330,11 +8226,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8367,11 +8259,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8292,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +8325,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8474,17 +8354,11 @@
         <v>25778.75271977997</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8513,17 +8387,11 @@
         <v>25557.69531977997</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8552,17 +8420,11 @@
         <v>25779.39531977997</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8591,17 +8453,11 @@
         <v>26672.19261977997</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8630,17 +8486,11 @@
         <v>29219.40681977997</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8669,17 +8519,11 @@
         <v>34728.65361962997</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +8556,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8749,11 +8589,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8786,11 +8622,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8823,11 +8655,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +8688,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8897,11 +8721,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8934,11 +8754,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8971,11 +8787,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9008,11 +8820,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9045,11 +8853,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9082,11 +8886,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9119,11 +8919,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9156,11 +8952,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9193,11 +8985,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9230,11 +9018,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +9051,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +9084,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +9117,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9378,11 +9150,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +9183,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +9216,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +9249,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9282,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9563,11 +9315,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9600,11 +9348,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9633,16 +9377,14 @@
         <v>47790.45658948998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
       <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -9668,7 +9410,7 @@
         <v>45701.67478948998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11252,7 +10994,7 @@
         <v>71539.78253136996</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -17258,7 +17000,7 @@
         <v>102022.32260668</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17291,7 +17033,7 @@
         <v>98194.86690667995</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17324,7 +17066,7 @@
         <v>88240.61440667995</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17456,7 +17198,7 @@
         <v>91940.22880667995</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17522,7 +17264,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17555,7 +17297,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17588,7 +17330,7 @@
         <v>91167.46350667995</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17621,7 +17363,7 @@
         <v>87315.50120667995</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -21845,14 +21587,10 @@
         <v>52016.37300667992</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>621</v>
-      </c>
-      <c r="J642" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
@@ -21885,14 +21623,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>621</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21924,14 +21656,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>621</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
